--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="656" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6720E0E7-207F-4FF8-8744-5D67703A6A20}"/>
+  <xr:revisionPtr revIDLastSave="658" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54691F4-74DB-443C-8B02-006D2DA8FF3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Avantis International Small Cap Value ETF (AVDV)</t>
+  </si>
+  <si>
+    <t>Bookyear != calender year: august</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -145,7 +148,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -443,7 +446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -486,6 +491,9 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -615,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -658,6 +668,9 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="658" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54691F4-74DB-443C-8B02-006D2DA8FF3E}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B6E317-73D4-4E1E-9054-174E7303E19F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUV" sheetId="17" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>Bookyear != calender year: august</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Lending income</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Lending income %</t>
+  </si>
+  <si>
+    <t>Dividend (gross)</t>
+  </si>
+  <si>
+    <t>Leakage costs</t>
+  </si>
+  <si>
+    <t>Total average costs</t>
   </si>
 </sst>
 </file>
@@ -142,7 +163,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -161,12 +182,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,294 +468,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>355298485</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1570143136</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>317911</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2181290</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(C7:D7)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <f>C6/C7</f>
+        <v>127164400</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D6/D7</f>
+        <v>872516000</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7410</v>
+      </c>
+      <c r="D10" s="5">
+        <v>92091</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10/C8</f>
+        <v>5.8271025538594133E-5</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D8</f>
+        <v>1.0554648854576879E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>AVERAGE(C11:D11)</f>
+        <v>8.1908757042181468E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C13" s="5">
         <v>2685568</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D13" s="5">
+        <v>17083897</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C14" s="5">
         <v>4931</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D14" s="5">
+        <v>21826</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9">
-        <f t="shared" ref="C12" si="0">C11/(C10+C11)</f>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
         <v>1.8327455241574147E-3</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2759472370738145E-3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C13+C14)/C8</f>
+        <v>2.1157643176863965E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D13+D14)/D8</f>
+        <v>1.9605053660907076E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C14/C8</f>
+        <v>3.8776575834117093E-5</v>
+      </c>
+      <c r="D17" s="10">
+        <f>D14/D8</f>
+        <v>2.5015014051318255E-5</v>
+      </c>
+      <c r="E17" s="4">
+        <f>AVERAGE(C17:D17)</f>
+        <v>3.1895794942717676E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="14">
+        <f>AVERAGE(C19:D19)</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f>E7-E11+E17</f>
+        <v>2.4499870379005363E-3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
       <c r="C35" s="11"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>274824683</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1056702827</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>292899</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2087838</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(C7:D7)</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <f>C6/C7</f>
+        <v>81360833.333333328</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D6/D7</f>
+        <v>579955000</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>25648</v>
+      </c>
+      <c r="D10" s="5">
+        <v>349475</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10/C8</f>
+        <v>3.1523767578585111E-4</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D8</f>
+        <v>6.0258985610952577E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>AVERAGE(C11:D11)</f>
+        <v>4.5891376594768844E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C13" s="5">
         <v>2054134</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D13" s="5">
+        <v>15495150</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C14" s="5">
         <v>213731</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D14" s="5">
+        <f>1431156+2311</f>
+        <v>1433467</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9">
-        <f t="shared" ref="C12" si="0">C11/(C10+C11)</f>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
         <v>9.4243264039085214E-2</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>8.4677147577974024E-2</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C13+C14)/C8</f>
+        <v>2.7874161400346195E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D13+D14)/D8</f>
+        <v>2.9189535394987542E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <f>C14/C8</f>
+        <v>2.6269519527209041E-3</v>
+      </c>
+      <c r="D17" s="9">
+        <f>D14/D8</f>
+        <v>2.4716865963738564E-3</v>
+      </c>
+      <c r="E17" s="4">
+        <f>AVERAGE(C17:D17)</f>
+        <v>2.54931927454738E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="14">
+        <f>AVERAGE(C19:D19)</f>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <f>E7-E11+E17</f>
+        <v>5.690405508599691E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B6E317-73D4-4E1E-9054-174E7303E19F}"/>
+  <xr:revisionPtr revIDLastSave="815" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C012EE-A20D-4F5A-8CD6-979996F51424}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3705" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUV" sheetId="17" r:id="rId1"/>
@@ -187,10 +187,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,6 +470,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:G46"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>355298485</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1570143136</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>317911</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2181290</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(C7:D7)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C6/C7</f>
+        <v>127164400</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D6/D7</f>
+        <v>872516000</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7410</v>
+      </c>
+      <c r="D10" s="5">
+        <v>92091</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10/C8</f>
+        <v>5.8271025538594133E-5</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D8</f>
+        <v>1.0554648854576879E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>AVERAGE(C11:D11)</f>
+        <v>8.1908757042181468E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2685568</v>
+      </c>
+      <c r="D13" s="5">
+        <v>17083897</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4931</v>
+      </c>
+      <c r="D14" s="5">
+        <v>21826</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+        <v>1.8327455241574147E-3</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2759472370738145E-3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C13+C14)/C8</f>
+        <v>2.1157643176863965E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D13+D14)/D8</f>
+        <v>1.9605053660907076E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C14/C8</f>
+        <v>3.8776575834117093E-5</v>
+      </c>
+      <c r="D17" s="10">
+        <f>D14/D8</f>
+        <v>2.5015014051318255E-5</v>
+      </c>
+      <c r="E17" s="4">
+        <f>AVERAGE(C17:D17)</f>
+        <v>3.1895794942717676E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="14">
+        <f>AVERAGE(C19:D19)</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f>E7-E11+E17</f>
+        <v>2.4499870379005363E-3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +796,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -509,321 +824,6 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>355298485</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1570143136</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>317911</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2181290</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(C7:D7)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <f>C6/C7</f>
-        <v>127164400</v>
-      </c>
-      <c r="D8" s="5">
-        <f>D6/D7</f>
-        <v>872516000</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7410</v>
-      </c>
-      <c r="D10" s="5">
-        <v>92091</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16">
-        <f>C10/C8</f>
-        <v>5.8271025538594133E-5</v>
-      </c>
-      <c r="D11" s="16">
-        <f>D10/D8</f>
-        <v>1.0554648854576879E-4</v>
-      </c>
-      <c r="E11" s="4">
-        <f>AVERAGE(C11:D11)</f>
-        <v>8.1908757042181468E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2685568</v>
-      </c>
-      <c r="D13" s="5">
-        <v>17083897</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4931</v>
-      </c>
-      <c r="D14" s="5">
-        <v>21826</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
-        <v>1.8327455241574147E-3</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2759472370738145E-3</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="9">
-        <f>(C13+C14)/C8</f>
-        <v>2.1157643176863965E-2</v>
-      </c>
-      <c r="D16" s="9">
-        <f>(D13+D14)/D8</f>
-        <v>1.9605053660907076E-2</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10">
-        <f>C14/C8</f>
-        <v>3.8776575834117093E-5</v>
-      </c>
-      <c r="D17" s="10">
-        <f>D14/D8</f>
-        <v>2.5015014051318255E-5</v>
-      </c>
-      <c r="E17" s="4">
-        <f>AVERAGE(C17:D17)</f>
-        <v>3.1895794942717676E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="E19" s="14">
-        <f>AVERAGE(C19:D19)</f>
-        <v>0.21000000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <f>E7-E11+E17</f>
-        <v>2.4499870379005363E-3</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="B2:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
         <v>274824683</v>
       </c>
       <c r="D5" s="5">

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="815" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C012EE-A20D-4F5A-8CD6-979996F51424}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908F7307-AB4E-499A-A0AA-A12957E14982}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="3705" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3705" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVUV" sheetId="17" r:id="rId1"/>
-    <sheet name="AVDV" sheetId="18" r:id="rId2"/>
+    <sheet name="AVUS" sheetId="19" r:id="rId1"/>
+    <sheet name="AVDE" sheetId="20" r:id="rId2"/>
+    <sheet name="AVEM" sheetId="21" r:id="rId3"/>
+    <sheet name="AVUV" sheetId="17" r:id="rId4"/>
+    <sheet name="AVDV" sheetId="18" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -91,6 +96,27 @@
   </si>
   <si>
     <t>Total average costs</t>
+  </si>
+  <si>
+    <t>Avantis U.S. Equity ETF (AVUS)</t>
+  </si>
+  <si>
+    <t>Avantis International Equity ETF (AVDE)</t>
+  </si>
+  <si>
+    <t>Avantis Emerging Markets Equity ETF (AVEM)</t>
+  </si>
+  <si>
+    <t>First year</t>
+  </si>
+  <si>
+    <t>9/24/2019 - 8/31/2020</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Total average costs (withouth div leak)</t>
   </si>
 </sst>
 </file>
@@ -163,7 +189,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -185,6 +211,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -467,8 +496,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="B2:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
+  <dimension ref="B2:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>436098997</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1486457587</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>329876</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1316876</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>0.15%*G5</f>
+        <v>1.4016393442622952E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(C7:D7)</f>
+        <v>1.4508196721311475E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C6/C7</f>
+        <v>235350128.65497074</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D6/D7</f>
+        <v>877917333.33333337</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>25260</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10/C8</f>
+        <v>1.2759712591457617E-5</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D8</f>
+        <v>2.8772640704212088E-5</v>
+      </c>
+      <c r="E11" s="4">
+        <f>AVERAGE(C11:D11)</f>
+        <v>2.0766176647834853E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4187944</v>
+      </c>
+      <c r="D13" s="5">
+        <v>13232521</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>883</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2311</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+        <v>2.1079887042362933E-4</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.7461498566812182E-4</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C13+C14)/C8</f>
+        <v>1.7798277927185358E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D13+D14)/D8</f>
+        <v>1.507525993335743E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C14/C8</f>
+        <v>3.7518568825364883E-6</v>
+      </c>
+      <c r="D17" s="10">
+        <f>D14/D8</f>
+        <v>2.6323662972064186E-6</v>
+      </c>
+      <c r="E17" s="4">
+        <f>AVERAGE(C17:D17)</f>
+        <v>3.1921115898714537E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16">
+        <f>D7-E11+E17</f>
+        <v>1.4824259349420367E-3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <f>D7-E11</f>
+        <v>1.4792338233521652E-3</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3FF730-CD7B-4BE0-818C-4803132121D8}">
+  <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,18 +834,20 @@
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2020</v>
       </c>
@@ -501,151 +858,156 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>355298485</v>
+        <v>341344095</v>
       </c>
       <c r="D5" s="5">
-        <v>1570143136</v>
+        <v>997543705</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>317911</v>
+        <v>379637</v>
       </c>
       <c r="D6" s="5">
-        <v>2181290</v>
+        <v>1451556</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <f>0.23%*G5</f>
+        <v>2.1491803278688524E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E7" s="4">
         <f>AVERAGE(C7:D7)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2.2245901639344262E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5">
         <f>C6/C7</f>
-        <v>127164400</v>
+        <v>176642692.6010679</v>
       </c>
       <c r="D8" s="5">
         <f>D6/D7</f>
-        <v>872516000</v>
+        <v>631111304.34782612</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>7410</v>
+        <v>32657</v>
       </c>
       <c r="D10" s="5">
-        <v>92091</v>
+        <v>263805</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="16">
         <f>C10/C8</f>
-        <v>5.8271025538594133E-5</v>
+        <v>1.8487603149116948E-4</v>
       </c>
       <c r="D11" s="16">
         <f>D10/D8</f>
-        <v>1.0554648854576879E-4</v>
+        <v>4.1800075229615665E-4</v>
       </c>
       <c r="E11" s="4">
         <f>AVERAGE(C11:D11)</f>
-        <v>8.1908757042181468E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3.0143839189366304E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="5">
-        <v>2685568</v>
+        <v>4582772</v>
       </c>
       <c r="D13" s="5">
-        <v>17083897</v>
+        <v>17013346</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5">
-        <v>4931</v>
+        <v>488017</v>
       </c>
       <c r="D14" s="5">
-        <v>21826</v>
+        <v>1642168</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
-        <v>1.8327455241574147E-3</v>
+        <v>9.6240841415408923E-2</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>1.2759472370738145E-3</v>
+        <v>8.8025878032628846E-2</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>(C13+C14)/C8</f>
-        <v>2.1157643176863965E-2</v>
+        <v>2.8706474778732761E-2</v>
       </c>
       <c r="D16" s="9">
         <f>(D13+D14)/D8</f>
-        <v>1.9605053660907076E-2</v>
+        <v>2.9559784259098512E-2</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -655,15 +1017,15 @@
       </c>
       <c r="C17" s="10">
         <f>C14/C8</f>
-        <v>3.8776575834117093E-5</v>
+        <v>2.7627352867754559E-3</v>
       </c>
       <c r="D17" s="10">
         <f>D14/D8</f>
-        <v>2.5015014051318255E-5</v>
+        <v>2.6020259638622279E-3</v>
       </c>
       <c r="E17" s="4">
         <f>AVERAGE(C17:D17)</f>
-        <v>3.1895794942717676E-5</v>
+        <v>2.6823806253188417E-3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -676,15 +1038,12 @@
         <v>12</v>
       </c>
       <c r="C19" s="14">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D19" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="E19" s="14">
-        <f>AVERAGE(C19:D19)</f>
-        <v>0.21000000000000002</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
@@ -694,13 +1053,20 @@
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <f>E7-E11+E17</f>
-        <v>2.4499870379005363E-3</v>
+        <f>D7-E11+E17</f>
+        <v>4.6809422334251789E-3</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <f>D7-E11</f>
+        <v>1.9985616081063368E-3</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -781,11 +1147,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="B2:G26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD483D2-7A4A-4EFD-A0BB-DCD393B7C72C}">
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -794,9 +1160,336 @@
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>245445738</v>
+      </c>
+      <c r="D5" s="5">
+        <v>864826515</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="17">
+        <f>349/366</f>
+        <v>0.95355191256830596</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>422970</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1890706</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>0.33%*G5</f>
+        <v>3.1467213114754096E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(C7:D7)</f>
+        <v>3.2233606557377048E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C6/C7</f>
+        <v>134416097.94217244</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D6/D7</f>
+        <v>572941212.12121212</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>21611</v>
+      </c>
+      <c r="D10" s="5">
+        <v>227531</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10/C8</f>
+        <v>1.6077687368441044E-4</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D8</f>
+        <v>3.9712800403658737E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>AVERAGE(C11:D11)</f>
+        <v>2.7895243886049889E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4176992</v>
+      </c>
+      <c r="D13" s="5">
+        <v>15104729</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>560827</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2031372</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+        <v>0.11837239877673672</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11854341894926973</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C13+C14)/C8</f>
+        <v>3.524740765825736E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D13+D14)/D8</f>
+        <v>2.9909003991101735E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C14/C8</f>
+        <v>4.1723201951694442E-3</v>
+      </c>
+      <c r="D17" s="10">
+        <f>D14/D8</f>
+        <v>3.5455155904725536E-3</v>
+      </c>
+      <c r="E17" s="4">
+        <f>AVERAGE(C17:D17)</f>
+        <v>3.8589178928209989E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f>D7-E11+E17</f>
+        <v>6.8799654539604994E-3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <f>D7-E11</f>
+        <v>3.021047561139501E-3</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
+  <dimension ref="B2:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -805,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2020</v>
       </c>
@@ -819,26 +1512,362 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>274824683</v>
+        <v>355298485</v>
       </c>
       <c r="D5" s="5">
-        <v>1056702827</v>
+        <v>1570143136</v>
       </c>
       <c r="E5" s="1"/>
       <c r="G5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5">
+        <v>317911</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2181290</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>0.25%*G9</f>
+        <v>2.3360655737704921E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>AVERAGE(C7:D7)</f>
+        <v>2.4180327868852458E-3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C6/C7</f>
+        <v>136088217.54385963</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D6/D7</f>
+        <v>872516000</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7410</v>
+      </c>
+      <c r="D10" s="5">
+        <v>92091</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10/C8</f>
+        <v>5.4449974683604362E-5</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D8</f>
+        <v>1.0554648854576879E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>AVERAGE(C11:D11)</f>
+        <v>7.9998231614686579E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2685568</v>
+      </c>
+      <c r="D13" s="5">
+        <v>17083897</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4931</v>
+      </c>
+      <c r="D14" s="5">
+        <v>21826</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+        <v>1.8327455241574147E-3</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2759472370738145E-3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <f>(C13+C14)/C8</f>
+        <v>1.9770256739036821E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(D13+D14)/D8</f>
+        <v>1.9605053660907076E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C14/C8</f>
+        <v>3.6233849549912701E-5</v>
+      </c>
+      <c r="D17" s="10">
+        <f>D14/D8</f>
+        <v>2.5015014051318255E-5</v>
+      </c>
+      <c r="E17" s="4">
+        <f>AVERAGE(C17:D17)</f>
+        <v>3.0624431800615477E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="14">
+        <f>AVERAGE(C19:D19)</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <f>D7-E11+E17</f>
+        <v>2.4506262001859291E-3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <f>D7-E11</f>
+        <v>2.4200017683853135E-3</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>274824683</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1056702827</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
         <v>292899</v>
       </c>
       <c r="D6" s="5">
@@ -846,41 +1875,55 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>3.5999999999999999E-3</v>
+        <f>0.36%*G9</f>
+        <v>3.3639344262295081E-3</v>
       </c>
       <c r="D7" s="4">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E7" s="4">
         <f>AVERAGE(C7:D7)</f>
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3.481967213114754E-3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5">
         <f>C6/C7</f>
-        <v>81360833.333333328</v>
+        <v>87070365.49707602</v>
       </c>
       <c r="D8" s="5">
         <f>D6/D7</f>
         <v>579955000</v>
       </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -892,13 +1935,13 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="16">
         <f>C10/C8</f>
-        <v>3.1523767578585111E-4</v>
+        <v>2.9456635278350023E-4</v>
       </c>
       <c r="D11" s="16">
         <f>D10/D8</f>
@@ -906,13 +1949,13 @@
       </c>
       <c r="E11" s="4">
         <f>AVERAGE(C11:D11)</f>
-        <v>4.5891376594768844E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4.48578104446513E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -924,7 +1967,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -932,12 +1975,12 @@
         <v>213731</v>
       </c>
       <c r="D14" s="5">
-        <f>1431156+2311</f>
-        <v>1433467</v>
+        <f>1431156</f>
+        <v>1431156</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -947,21 +1990,21 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>8.4677147577974024E-2</v>
+        <v>8.4552175767116586E-2</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>(C13+C14)/C8</f>
-        <v>2.7874161400346195E-2</v>
+        <v>2.6046347538028411E-2</v>
       </c>
       <c r="D16" s="9">
         <f>(D13+D14)/D8</f>
-        <v>2.9189535394987542E-2</v>
+        <v>2.918555060306403E-2</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -971,15 +2014,15 @@
       </c>
       <c r="C17" s="9">
         <f>C14/C8</f>
-        <v>2.6269519527209041E-3</v>
+        <v>2.4546928082801889E-3</v>
       </c>
       <c r="D17" s="9">
         <f>D14/D8</f>
-        <v>2.4716865963738564E-3</v>
+        <v>2.4677018044503454E-3</v>
       </c>
       <c r="E17" s="4">
         <f>AVERAGE(C17:D17)</f>
-        <v>2.54931927454738E-3</v>
+        <v>2.4611973063652674E-3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1012,8 +2055,17 @@
         <v>18</v>
       </c>
       <c r="C21" s="4">
-        <f>E7-E11+E17</f>
-        <v>5.690405508599691E-3</v>
+        <f>D7-E11+E17</f>
+        <v>5.6126192019187544E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <f>D7-E11</f>
+        <v>3.151421895553487E-3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908F7307-AB4E-499A-A0AA-A12957E14982}"/>
+  <xr:revisionPtr revIDLastSave="1038" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD27A657-EF2E-4618-A190-BDC1B81BD3B4}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="3705" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="4050" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AVEM" sheetId="21" r:id="rId3"/>
     <sheet name="AVUV" sheetId="17" r:id="rId4"/>
     <sheet name="AVDV" sheetId="18" r:id="rId5"/>
+    <sheet name="Sum" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -117,16 +118,51 @@
   </si>
   <si>
     <t>Total average costs (withouth div leak)</t>
+  </si>
+  <si>
+    <t>AVUV/AVDV 50-50</t>
+  </si>
+  <si>
+    <t>Transaction costs</t>
+  </si>
+  <si>
+    <t>(estimate based on IUSN x2 because of higher turnover)</t>
+  </si>
+  <si>
+    <t>Total costs</t>
+  </si>
+  <si>
+    <t>Estimated future costs  (withouth div leak)</t>
+  </si>
+  <si>
+    <t>AVUS</t>
+  </si>
+  <si>
+    <t>AVDE</t>
+  </si>
+  <si>
+    <t>AVEM</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Core Global</t>
+  </si>
+  <si>
+    <t>Core World</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -189,7 +225,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -214,6 +250,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -497,323 +536,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B4" s="5">
         <v>436098997</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C4" s="5">
         <v>1486457587</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="17">
+      <c r="D4" s="1"/>
+      <c r="F4" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B5" s="5">
         <v>329876</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C5" s="5">
         <v>1316876</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f>0.15%*G5</f>
+      <c r="B6" s="4">
+        <f>0.15%*F4</f>
         <v>1.4016393442622952E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C6" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(C7:D7)</f>
+      <c r="D6" s="4">
+        <f>AVERAGE(B6:C6)</f>
         <v>1.4508196721311475E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
-        <f>C6/C7</f>
+      <c r="B7" s="5">
+        <f>B5/B6</f>
         <v>235350128.65497074</v>
       </c>
-      <c r="D8" s="5">
-        <f>D6/D7</f>
+      <c r="C7" s="5">
+        <f>C5/C6</f>
         <v>877917333.33333337</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B9" s="5">
         <v>3003</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C9" s="5">
         <v>25260</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
-        <f>C10/C8</f>
+      <c r="B10" s="16">
+        <f>B9/B7</f>
         <v>1.2759712591457617E-5</v>
       </c>
-      <c r="D11" s="16">
-        <f>D10/D8</f>
+      <c r="C10" s="16">
+        <f>C9/C7</f>
         <v>2.8772640704212088E-5</v>
       </c>
-      <c r="E11" s="4">
-        <f>AVERAGE(C11:D11)</f>
+      <c r="D10" s="18">
+        <f>AVERAGE(B10:C10)</f>
         <v>2.0766176647834853E-5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" s="5">
+        <v>4187944</v>
+      </c>
+      <c r="C12" s="5">
+        <v>13232521</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>883</v>
+      </c>
       <c r="C13" s="5">
-        <v>4187944</v>
-      </c>
-      <c r="D13" s="5">
-        <v>13232521</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>883</v>
-      </c>
-      <c r="D14" s="5">
         <v>2311</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
         <v>2.1079887042362933E-4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>1.7461498566812182E-4</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
-        <f>(C13+C14)/C8</f>
+      <c r="B15" s="9">
+        <f>(B12+B13)/B7</f>
         <v>1.7798277927185358E-2</v>
       </c>
-      <c r="D16" s="9">
-        <f>(D13+D14)/D8</f>
+      <c r="C15" s="9">
+        <f>(C12+C13)/C7</f>
         <v>1.507525993335743E-2</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
-        <f>C14/C8</f>
+      <c r="B16" s="10">
+        <f>B13/B7</f>
         <v>3.7518568825364883E-6</v>
       </c>
-      <c r="D17" s="10">
-        <f>D14/D8</f>
+      <c r="C16" s="10">
+        <f>C13/C7</f>
         <v>2.6323662972064186E-6</v>
       </c>
-      <c r="E17" s="4">
-        <f>AVERAGE(C17:D17)</f>
+      <c r="D16" s="19">
+        <f>AVERAGE(B16:C16)</f>
         <v>3.1921115898714537E-6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B18" s="14">
         <v>0.03</v>
       </c>
-      <c r="D19" s="14">
+      <c r="C18" s="14">
         <v>0.04</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="16">
-        <f>D7-E11+E17</f>
+      <c r="B20" s="2">
+        <f>C6-D10+D16</f>
         <v>1.4824259349420367E-3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3">
-        <f>D7-E11</f>
+      <c r="B21" s="4">
+        <f>C6-D10</f>
         <v>1.4792338233521652E-3</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <f>C6-C10</f>
+        <v>1.4712273592957879E-3</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,323 +869,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3FF730-CD7B-4BE0-818C-4803132121D8}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B4" s="5">
         <v>341344095</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C4" s="5">
         <v>997543705</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="17">
+      <c r="D4" s="1"/>
+      <c r="F4" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B5" s="5">
         <v>379637</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C5" s="5">
         <v>1451556</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f>0.23%*G5</f>
+      <c r="B6" s="4">
+        <f>0.23%*F4</f>
         <v>2.1491803278688524E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C6" s="4">
         <v>2.3E-3</v>
       </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(C7:D7)</f>
+      <c r="D6" s="4">
+        <f>AVERAGE(B6:C6)</f>
         <v>2.2245901639344262E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
-        <f>C6/C7</f>
+      <c r="B7" s="5">
+        <f>B5/B6</f>
         <v>176642692.6010679</v>
       </c>
-      <c r="D8" s="5">
-        <f>D6/D7</f>
+      <c r="C7" s="5">
+        <f>C5/C6</f>
         <v>631111304.34782612</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B9" s="5">
         <v>32657</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C9" s="5">
         <v>263805</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
-        <f>C10/C8</f>
+      <c r="B10" s="16">
+        <f>B9/B7</f>
         <v>1.8487603149116948E-4</v>
       </c>
-      <c r="D11" s="16">
-        <f>D10/D8</f>
+      <c r="C10" s="16">
+        <f>C9/C7</f>
         <v>4.1800075229615665E-4</v>
       </c>
-      <c r="E11" s="4">
-        <f>AVERAGE(C11:D11)</f>
+      <c r="D10" s="3">
+        <f>AVERAGE(B10:C10)</f>
         <v>3.0143839189366304E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" s="5">
+        <v>4582772</v>
+      </c>
+      <c r="C12" s="5">
+        <v>17013346</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>488017</v>
+      </c>
       <c r="C13" s="5">
-        <v>4582772</v>
-      </c>
-      <c r="D13" s="5">
-        <v>17013346</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>488017</v>
-      </c>
-      <c r="D14" s="5">
         <v>1642168</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
         <v>9.6240841415408923E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>8.8025878032628846E-2</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
-        <f>(C13+C14)/C8</f>
+      <c r="B15" s="9">
+        <f>(B12+B13)/B7</f>
         <v>2.8706474778732761E-2</v>
       </c>
-      <c r="D16" s="9">
-        <f>(D13+D14)/D8</f>
+      <c r="C15" s="9">
+        <f>(C12+C13)/C7</f>
         <v>2.9559784259098512E-2</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
-        <f>C14/C8</f>
+      <c r="B16" s="10">
+        <f>B13/B7</f>
         <v>2.7627352867754559E-3</v>
       </c>
-      <c r="D17" s="10">
-        <f>D14/D8</f>
+      <c r="C16" s="10">
+        <f>C13/C7</f>
         <v>2.6020259638622279E-3</v>
       </c>
-      <c r="E17" s="4">
-        <f>AVERAGE(C17:D17)</f>
+      <c r="D16" s="4">
+        <f>AVERAGE(B16:C16)</f>
         <v>2.6823806253188417E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B18" s="14">
         <v>0.08</v>
       </c>
-      <c r="D19" s="14">
+      <c r="C18" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <f>D7-E11+E17</f>
+      <c r="B20" s="2">
+        <f>C6-D10+D16</f>
         <v>4.6809422334251789E-3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
-        <f>D7-E11</f>
+      <c r="B21" s="4">
+        <f>C6-D10</f>
         <v>1.9985616081063368E-3</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <f>C6-C10</f>
+        <v>1.8819992477038432E-3</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,324 +1202,331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD483D2-7A4A-4EFD-A0BB-DCD393B7C72C}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B4" s="5">
         <v>245445738</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C4" s="5">
         <v>864826515</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="17">
+      <c r="D4" s="1"/>
+      <c r="F4" s="17">
         <f>349/366</f>
         <v>0.95355191256830596</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B5" s="5">
         <v>422970</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C5" s="5">
         <v>1890706</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f>0.33%*G5</f>
+      <c r="B6" s="4">
+        <f>0.33%*F4</f>
         <v>3.1467213114754096E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C6" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(C7:D7)</f>
+      <c r="D6" s="4">
+        <f>AVERAGE(B6:C6)</f>
         <v>3.2233606557377048E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
-        <f>C6/C7</f>
+      <c r="B7" s="5">
+        <f>B5/B6</f>
         <v>134416097.94217244</v>
       </c>
-      <c r="D8" s="5">
-        <f>D6/D7</f>
+      <c r="C7" s="5">
+        <f>C5/C6</f>
         <v>572941212.12121212</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B9" s="5">
         <v>21611</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C9" s="5">
         <v>227531</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
-        <f>C10/C8</f>
+      <c r="B10" s="16">
+        <f>B9/B7</f>
         <v>1.6077687368441044E-4</v>
       </c>
-      <c r="D11" s="16">
-        <f>D10/D8</f>
+      <c r="C10" s="16">
+        <f>C9/C7</f>
         <v>3.9712800403658737E-4</v>
       </c>
-      <c r="E11" s="4">
-        <f>AVERAGE(C11:D11)</f>
+      <c r="D10" s="3">
+        <f>AVERAGE(B10:C10)</f>
         <v>2.7895243886049889E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" s="5">
+        <v>4176992</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15104729</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>560827</v>
+      </c>
       <c r="C13" s="5">
-        <v>4176992</v>
-      </c>
-      <c r="D13" s="5">
-        <v>15104729</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>560827</v>
-      </c>
-      <c r="D14" s="5">
         <v>2031372</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
         <v>0.11837239877673672</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>0.11854341894926973</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
-        <f>(C13+C14)/C8</f>
+      <c r="B15" s="9">
+        <f>(B12+B13)/B7</f>
         <v>3.524740765825736E-2</v>
       </c>
-      <c r="D16" s="9">
-        <f>(D13+D14)/D8</f>
+      <c r="C15" s="9">
+        <f>(C12+C13)/C7</f>
         <v>2.9909003991101735E-2</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
-        <f>C14/C8</f>
+      <c r="B16" s="10">
+        <f>B13/B7</f>
         <v>4.1723201951694442E-3</v>
       </c>
-      <c r="D17" s="10">
-        <f>D14/D8</f>
+      <c r="C16" s="10">
+        <f>C13/C7</f>
         <v>3.5455155904725536E-3</v>
       </c>
-      <c r="E17" s="4">
-        <f>AVERAGE(C17:D17)</f>
+      <c r="D16" s="4">
+        <f>AVERAGE(B16:C16)</f>
         <v>3.8589178928209989E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B18" s="14">
         <v>0.08</v>
       </c>
-      <c r="D19" s="14">
+      <c r="C18" s="14">
         <v>0.05</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <f>D7-E11+E17</f>
+      <c r="B20" s="2">
+        <f>C6-D10+D16</f>
         <v>6.8799654539604994E-3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
-        <f>D7-E11</f>
+      <c r="B21" s="4">
+        <f>C6-D10</f>
         <v>3.021047561139501E-3</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <f>C6-C10</f>
+        <v>2.9028719959634124E-3</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,333 +1536,340 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="5">
+        <v>355298485</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1570143136</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>317911</v>
+      </c>
       <c r="C5" s="5">
-        <v>355298485</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1570143136</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>317911</v>
-      </c>
-      <c r="D6" s="5">
         <v>2181290</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f>0.25%*G9</f>
+      <c r="B6" s="4">
+        <f>0.25%*F8</f>
         <v>2.3360655737704921E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C6" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(C7:D7)</f>
+      <c r="D6" s="4">
+        <f>AVERAGE(B6:C6)</f>
         <v>2.4180327868852458E-3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
-        <f>C6/C7</f>
+      <c r="B7" s="5">
+        <f>B5/B6</f>
         <v>136088217.54385963</v>
       </c>
-      <c r="D8" s="5">
-        <f>D6/D7</f>
+      <c r="C7" s="5">
+        <f>C5/C6</f>
         <v>872516000</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="G8" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B9" s="5">
         <v>7410</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C9" s="5">
         <v>92091</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
-        <f>C10/C8</f>
+      <c r="B10" s="16">
+        <f>B9/B7</f>
         <v>5.4449974683604362E-5</v>
       </c>
-      <c r="D11" s="16">
-        <f>D10/D8</f>
+      <c r="C10" s="16">
+        <f>C9/C7</f>
         <v>1.0554648854576879E-4</v>
       </c>
-      <c r="E11" s="4">
-        <f>AVERAGE(C11:D11)</f>
+      <c r="D10" s="18">
+        <f>AVERAGE(B10:C10)</f>
         <v>7.9998231614686579E-5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" s="5">
+        <v>2685568</v>
+      </c>
+      <c r="C12" s="5">
+        <v>17083897</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4931</v>
+      </c>
       <c r="C13" s="5">
-        <v>2685568</v>
-      </c>
-      <c r="D13" s="5">
-        <v>17083897</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4931</v>
-      </c>
-      <c r="D14" s="5">
         <v>21826</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
         <v>1.8327455241574147E-3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>1.2759472370738145E-3</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
-        <f>(C13+C14)/C8</f>
+      <c r="B15" s="9">
+        <f>(B12+B13)/B7</f>
         <v>1.9770256739036821E-2</v>
       </c>
-      <c r="D16" s="9">
-        <f>(D13+D14)/D8</f>
+      <c r="C15" s="9">
+        <f>(C12+C13)/C7</f>
         <v>1.9605053660907076E-2</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
-        <f>C14/C8</f>
+      <c r="B16" s="10">
+        <f>B13/B7</f>
         <v>3.6233849549912701E-5</v>
       </c>
-      <c r="D17" s="10">
-        <f>D14/D8</f>
+      <c r="C16" s="10">
+        <f>C13/C7</f>
         <v>2.5015014051318255E-5</v>
       </c>
-      <c r="E17" s="4">
-        <f>AVERAGE(C17:D17)</f>
+      <c r="D16" s="18">
+        <f>AVERAGE(B16:C16)</f>
         <v>3.0624431800615477E-5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B18" s="14">
         <v>0.2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="C18" s="14">
         <v>0.22</v>
       </c>
-      <c r="E19" s="14">
-        <f>AVERAGE(C19:D19)</f>
+      <c r="D18" s="14">
+        <f>AVERAGE(B18:C18)</f>
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <f>D7-E11+E17</f>
+      <c r="B20" s="2">
+        <f>C6-D10+D16</f>
         <v>2.4506262001859291E-3</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
-        <f>D7-E11</f>
+      <c r="B21" s="4">
+        <f>C6-D10</f>
         <v>2.4200017683853135E-3</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <f>C6-C10</f>
+        <v>2.3944535114542313E-3</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,268 +1879,414 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="5">
+        <v>274824683</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1056702827</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>292899</v>
+      </c>
       <c r="C5" s="5">
-        <v>274824683</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1056702827</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>292899</v>
-      </c>
-      <c r="D6" s="5">
         <v>2087838</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f>0.36%*G9</f>
+      <c r="B6" s="4">
+        <f>0.36%*F8</f>
         <v>3.3639344262295081E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C6" s="4">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(C7:D7)</f>
+      <c r="D6" s="4">
+        <f>AVERAGE(B6:C6)</f>
         <v>3.481967213114754E-3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
-        <f>C6/C7</f>
+      <c r="B7" s="5">
+        <f>B5/B6</f>
         <v>87070365.49707602</v>
       </c>
-      <c r="D8" s="5">
-        <f>D6/D7</f>
+      <c r="C7" s="5">
+        <f>C5/C6</f>
         <v>579955000</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="G8" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B9" s="5">
         <v>25648</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C9" s="5">
         <v>349475</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16">
-        <f>C10/C8</f>
+      <c r="B10" s="16">
+        <f>B9/B7</f>
         <v>2.9456635278350023E-4</v>
       </c>
-      <c r="D11" s="16">
-        <f>D10/D8</f>
+      <c r="C10" s="16">
+        <f>C9/C7</f>
         <v>6.0258985610952577E-4</v>
       </c>
-      <c r="E11" s="4">
-        <f>AVERAGE(C11:D11)</f>
+      <c r="D10" s="3">
+        <f>AVERAGE(B10:C10)</f>
         <v>4.48578104446513E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" s="5">
+        <v>2054134</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15495150</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>213731</v>
+      </c>
       <c r="C13" s="5">
-        <v>2054134</v>
-      </c>
-      <c r="D13" s="5">
-        <v>15495150</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>213731</v>
-      </c>
-      <c r="D14" s="5">
         <f>1431156</f>
         <v>1431156</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:D15" si="0">C14/(C13+C14)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
         <v>9.4243264039085214E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>8.4552175767116586E-2</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" s="9">
+        <f>(B12+B13)/B7</f>
+        <v>2.6046347538028411E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <f>(C12+C13)/C7</f>
+        <v>2.918555060306403E-2</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <f>B13/B7</f>
+        <v>2.4546928082801889E-3</v>
+      </c>
       <c r="C16" s="9">
-        <f>(C13+C14)/C8</f>
-        <v>2.6046347538028411E-2</v>
-      </c>
-      <c r="D16" s="9">
-        <f>(D13+D14)/D8</f>
-        <v>2.918555060306403E-2</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9">
-        <f>C14/C8</f>
-        <v>2.4546928082801889E-3</v>
-      </c>
-      <c r="D17" s="9">
-        <f>D14/D8</f>
+        <f>C13/C7</f>
         <v>2.4677018044503454E-3</v>
       </c>
-      <c r="E17" s="4">
-        <f>AVERAGE(C17:D17)</f>
+      <c r="D16" s="4">
+        <f>AVERAGE(B16:C16)</f>
         <v>2.4611973063652674E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B18" s="14">
         <v>0.32</v>
       </c>
-      <c r="D19" s="15">
+      <c r="C18" s="15">
         <v>0.21</v>
       </c>
-      <c r="E19" s="14">
-        <f>AVERAGE(C19:D19)</f>
+      <c r="D18" s="14">
+        <f>AVERAGE(B18:C18)</f>
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
-        <f>D7-E11+E17</f>
+      <c r="B20" s="4">
+        <f>C6-D10+D16</f>
         <v>5.6126192019187544E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
-        <f>D7-E11</f>
+      <c r="B21" s="4">
+        <f>C6-D10</f>
         <v>3.151421895553487E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <f>C6-C10</f>
+        <v>2.997410143890474E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27195BC6-03BD-4995-BFCE-A1AFF8375114}">
+  <dimension ref="B2:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8">
+        <f>(50%*AVUV!B20)+(50%*AVDV!B20)</f>
+        <v>4.0316227010523415E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM(C2:C3)</f>
+        <v>5.1316227010523418E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <f>B8*AVUS!B20</f>
+        <v>9.0131496844475826E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C8*AVDE!B20</f>
+        <v>1.2966209986587747E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8*AVEM!B20</f>
+        <v>7.9119602720545748E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUM(B9:D9)</f>
+        <v>2.9891319943089905E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C15" s="4">
+        <f>100%-B15</f>
+        <v>0.31200000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <f>B15*AVUS!B20</f>
+        <v>1.0199090432401212E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C15*AVDE!B20</f>
+        <v>1.4604539768286562E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8">
+        <f>SUM(B16:C16)</f>
+        <v>2.4803630200687776E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD27A657-EF2E-4618-A190-BDC1B81BD3B4}"/>
+  <xr:revisionPtr revIDLastSave="1092" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F804AF-5957-466A-8715-034EC573DD03}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="4050" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="2310" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Core World</t>
+  </si>
+  <si>
+    <t>Brokerage commissions</t>
+  </si>
+  <si>
+    <t>Brokerage commissions %</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,86 +765,107 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5">
+        <f>6363</f>
+        <v>6363</v>
+      </c>
+      <c r="C19" s="5">
+        <f>14472</f>
+        <v>14472</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <f>C6-D10+D16</f>
-        <v>1.4824259349420367E-3</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B19/B7</f>
+        <v>2.7036314092389213E-5</v>
+      </c>
+      <c r="C20" s="4">
+        <f>C19/C7</f>
+        <v>1.648446778588113E-5</v>
+      </c>
+      <c r="D20" s="4">
+        <f>AVERAGE(B20:C20)</f>
+        <v>2.1760390939135172E-5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4">
-        <f>C6-D10</f>
-        <v>1.4792338233521652E-3</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <f>D6-D10+D16+D20</f>
+        <v>1.4550059980123194E-3</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B22-D16</f>
+        <v>1.451813886422448E-3</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
-        <f>C6-C10</f>
-        <v>1.4712273592957879E-3</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="10"/>
+      <c r="B24" s="4">
+        <f>C6-C10+C20</f>
+        <v>1.4877118270816691E-3</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
@@ -857,9 +884,19 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -869,9 +906,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3FF730-CD7B-4BE0-818C-4803132121D8}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1092,86 +1131,105 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5">
+        <v>35826</v>
+      </c>
+      <c r="C19" s="5">
+        <v>165487</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <f>C6-D10+D16</f>
-        <v>4.6809422334251789E-3</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B19/B7</f>
+        <v>2.028162018618562E-4</v>
+      </c>
+      <c r="C20" s="4">
+        <f>C19/C7</f>
+        <v>2.6221523661505307E-4</v>
+      </c>
+      <c r="D20" s="4">
+        <f>AVERAGE(B20:C20)</f>
+        <v>2.3251571923845463E-4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4">
-        <f>C6-D10</f>
-        <v>1.9985616081063368E-3</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <f>D6-D10+D16+D20</f>
+        <v>4.8380481165980586E-3</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B22-D16</f>
+        <v>2.155667491279217E-3</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
-        <f>C6-C10</f>
-        <v>1.8819992477038432E-3</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="10"/>
+      <c r="B24" s="4">
+        <f>C6-C10+C20</f>
+        <v>2.1442144843188964E-3</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
@@ -1190,9 +1248,19 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD483D2-7A4A-4EFD-A0BB-DCD393B7C72C}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1426,91 +1494,111 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5">
+        <v>67576</v>
+      </c>
+      <c r="C19" s="5">
+        <v>168698</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B19/B7</f>
+        <v>5.0273740299374022E-4</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C19/C7</f>
+        <v>2.9444207613452328E-4</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(B20:C20)</f>
+        <v>3.9858973956413175E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <f>C6-D10+D16</f>
-        <v>6.8799654539604994E-3</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B23" s="2">
+        <f>D6-D10+D16+D20</f>
+        <v>7.2019158492623364E-3</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4">
-        <f>C6-D10</f>
-        <v>3.021047561139501E-3</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="4">
+        <f>B23-D16</f>
+        <v>3.3429979564413375E-3</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
-        <f>C6-C10</f>
-        <v>2.9028719959634124E-3</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="4">
+        <f>C6-C10+C20</f>
+        <v>3.1973140720979358E-3</v>
+      </c>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
@@ -1524,9 +1612,24 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1769,86 +1872,103 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5">
+        <f>28342</f>
+        <v>28342</v>
+      </c>
+      <c r="C19" s="5">
+        <f>146918</f>
+        <v>146918</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <f>C6-D10+D16</f>
-        <v>2.4506262001859291E-3</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B19/B7</f>
+        <v>2.0826196794638527E-4</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C19/C7</f>
+        <v>1.6838430470042957E-4</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(B20:C20)</f>
+        <v>1.8832313632340743E-4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4">
-        <f>C6-D10</f>
-        <v>2.4200017683853135E-3</v>
-      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <f>D6-D10+D16+D20</f>
+        <v>2.5569821233945821E-3</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B22-D16</f>
+        <v>2.5263576915939665E-3</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
-        <f>C6-C10</f>
-        <v>2.3944535114542313E-3</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <f>C6-C10+C20</f>
+        <v>2.5628378161546609E-3</v>
+      </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
       <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
@@ -1867,9 +1987,19 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2113,40 +2243,69 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5">
+        <v>28160</v>
+      </c>
+      <c r="C19" s="5">
+        <v>119063</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <f>C6-D10+D16</f>
-        <v>5.6126192019187544E-3</v>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B19/B7</f>
+        <v>3.2341658197065524E-4</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C19/C7</f>
+        <v>2.0529696269538155E-4</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(B20:C20)</f>
+        <v>2.6435677233301838E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4">
-        <f>C6-D10</f>
-        <v>3.151421895553487E-3</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D6-D10+D16+D20</f>
+        <v>5.7589431873665267E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B22-D16</f>
+        <v>3.2977458810012593E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
-        <f>C6-C10</f>
-        <v>2.997410143890474E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B24" s="4">
+        <f>C6-C10+C20</f>
+        <v>3.2027071065858555E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2170,8 +2329,8 @@
         <v>26</v>
       </c>
       <c r="C2" s="8">
-        <f>(50%*AVUV!B20)+(50%*AVDV!B20)</f>
-        <v>4.0316227010523415E-3</v>
+        <f>(50%*AVUV!B22)+(50%*AVDV!B22)</f>
+        <v>4.1579626553805548E-3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2191,7 +2350,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(C2:C3)</f>
-        <v>5.1316227010523418E-3</v>
+        <v>5.2579626553805551E-3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2223,16 +2382,16 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <f>B8*AVUS!B20</f>
-        <v>9.0131496844475826E-4</v>
+        <f>B8*AVUS!B22</f>
+        <v>8.8464364679149011E-4</v>
       </c>
       <c r="C9" s="4">
-        <f>C8*AVDE!B20</f>
-        <v>1.2966209986587747E-3</v>
+        <f>C8*AVDE!B22</f>
+        <v>1.3401393282976624E-3</v>
       </c>
       <c r="D9" s="4">
-        <f>D8*AVEM!B20</f>
-        <v>7.9119602720545748E-4</v>
+        <f>D8*AVEM!B23</f>
+        <v>8.2822032266516874E-4</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2241,7 +2400,7 @@
       </c>
       <c r="C11" s="8">
         <f>SUM(B9:D9)</f>
-        <v>2.9891319943089905E-3</v>
+        <v>3.0530032977543211E-3</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2268,12 +2427,12 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <f>B15*AVUS!B20</f>
-        <v>1.0199090432401212E-3</v>
+        <f>B15*AVUS!B22</f>
+        <v>1.0010441266324758E-3</v>
       </c>
       <c r="C16" s="4">
-        <f>C15*AVDE!B20</f>
-        <v>1.4604539768286562E-3</v>
+        <f>C15*AVDE!B22</f>
+        <v>1.5094710123785945E-3</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -2282,7 +2441,7 @@
       </c>
       <c r="C18" s="8">
         <f>SUM(B16:C16)</f>
-        <v>2.4803630200687776E-3</v>
+        <v>2.5105151390110705E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1092" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F804AF-5957-466A-8715-034EC573DD03}"/>
+  <xr:revisionPtr revIDLastSave="1109" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61320F23-9CC7-4456-9BA9-A675DC7D417B}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="2310" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="2325" windowWidth="17220" windowHeight="15555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="AVEM" sheetId="21" r:id="rId3"/>
     <sheet name="AVUV" sheetId="17" r:id="rId4"/>
     <sheet name="AVDV" sheetId="18" r:id="rId5"/>
-    <sheet name="Sum" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -120,37 +119,7 @@
     <t>Total average costs (withouth div leak)</t>
   </si>
   <si>
-    <t>AVUV/AVDV 50-50</t>
-  </si>
-  <si>
-    <t>Transaction costs</t>
-  </si>
-  <si>
-    <t>(estimate based on IUSN x2 because of higher turnover)</t>
-  </si>
-  <si>
-    <t>Total costs</t>
-  </si>
-  <si>
     <t>Estimated future costs  (withouth div leak)</t>
-  </si>
-  <si>
-    <t>AVUS</t>
-  </si>
-  <si>
-    <t>AVDE</t>
-  </si>
-  <si>
-    <t>AVEM</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Core Global</t>
-  </si>
-  <si>
-    <t>Core World</t>
   </si>
   <si>
     <t>Brokerage commissions</t>
@@ -231,7 +200,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -258,7 +227,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -544,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -766,7 +734,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <f>6363</f>
@@ -780,7 +748,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4">
         <f>B19/B7</f>
@@ -821,7 +789,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <f>C6-C10+C20</f>
@@ -908,9 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3FF730-CD7B-4BE0-818C-4803132121D8}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1132,7 +1098,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <v>35826</v>
@@ -1144,7 +1110,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4">
         <f>B19/B7</f>
@@ -1185,7 +1151,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <f>C6-C10+C20</f>
@@ -1495,7 +1461,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <v>67576</v>
@@ -1507,7 +1473,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <f>B19/B7</f>
@@ -1554,7 +1520,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4">
         <f>C6-C10+C20</f>
@@ -1641,12 +1607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,11 +1734,11 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="2">
         <f>B9/B7</f>
         <v>5.4449974683604362E-5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="2">
         <f>C9/C7</f>
         <v>1.0554648854576879E-4</v>
       </c>
@@ -1838,11 +1806,11 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <f>B13/B7</f>
         <v>3.6233849549912701E-5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <f>C13/C7</f>
         <v>2.5015014051318255E-5</v>
       </c>
@@ -1873,7 +1841,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <f>28342</f>
@@ -1887,9 +1855,9 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4">
         <f>B19/B7</f>
         <v>2.0826196794638527E-4</v>
       </c>
@@ -1928,9 +1896,9 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
         <f>C6-C10+C20</f>
         <v>2.5628378161546609E-3</v>
       </c>
@@ -2011,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2209,11 +2177,11 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <f>B13/B7</f>
         <v>2.4546928082801889E-3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <f>C13/C7</f>
         <v>2.4677018044503454E-3</v>
       </c>
@@ -2244,7 +2212,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <v>28160</v>
@@ -2256,7 +2224,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <f>B19/B7</f>
@@ -2280,7 +2248,7 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f>D6-D10+D16+D20</f>
         <v>5.7589431873665267E-3</v>
       </c>
@@ -2296,7 +2264,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <f>C6-C10+C20</f>
@@ -2311,141 +2279,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27195BC6-03BD-4995-BFCE-A1AFF8375114}">
-  <dimension ref="B2:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8">
-        <f>(50%*AVUV!B22)+(50%*AVDV!B22)</f>
-        <v>4.1579626553805548E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4">
-        <f>SUM(C2:C3)</f>
-        <v>5.2579626553805551E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <f>B8*AVUS!B22</f>
-        <v>8.8464364679149011E-4</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C8*AVDE!B22</f>
-        <v>1.3401393282976624E-3</v>
-      </c>
-      <c r="D9" s="4">
-        <f>D8*AVEM!B23</f>
-        <v>8.2822032266516874E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="8">
-        <f>SUM(B9:D9)</f>
-        <v>3.0530032977543211E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="C15" s="4">
-        <f>100%-B15</f>
-        <v>0.31200000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <f>B15*AVUS!B22</f>
-        <v>1.0010441266324758E-3</v>
-      </c>
-      <c r="C16" s="4">
-        <f>C15*AVDE!B22</f>
-        <v>1.5094710123785945E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8">
-        <f>SUM(B16:C16)</f>
-        <v>2.5105151390110705E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1109" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61320F23-9CC7-4456-9BA9-A675DC7D417B}"/>
+  <xr:revisionPtr revIDLastSave="1112" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47D4D55-16B2-4E4B-BC14-4E08AFA3E3A3}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="2325" windowWidth="17220" windowHeight="15555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="3435" windowWidth="17220" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -1238,7 +1238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD483D2-7A4A-4EFD-A0BB-DCD393B7C72C}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1532,6 +1534,7 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1112" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47D4D55-16B2-4E4B-BC14-4E08AFA3E3A3}"/>
+  <xr:revisionPtr revIDLastSave="1179" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546C8275-1507-4436-B59A-1CFE6D1D9B2A}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="3435" windowWidth="17220" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -200,7 +200,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -227,6 +227,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -510,14 +511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -630,9 +633,9 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16">
-        <f>B9/B7</f>
-        <v>1.2759712591457617E-5</v>
+      <c r="B10" s="20">
+        <f>(B9/B7)/F4</f>
+        <v>1.3655131018928326E-5</v>
       </c>
       <c r="C10" s="16">
         <f>C9/C7</f>
@@ -640,7 +643,7 @@
       </c>
       <c r="D10" s="18">
         <f>AVERAGE(B10:C10)</f>
-        <v>2.0766176647834853E-5</v>
+        <v>2.1213885861570207E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,11 +678,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
+        <f>B13/(B12+B13)</f>
         <v>2.1079887042362933E-4</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C14" si="0">C13/(C12+C13)</f>
         <v>1.7461498566812182E-4</v>
       </c>
       <c r="D14" s="4"/>
@@ -689,8 +692,8 @@
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <f>(B12+B13)/B7</f>
-        <v>1.7798277927185358E-2</v>
+        <f>((B12+B13)/B7)/F4</f>
+        <v>1.9047279886987838E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
@@ -703,8 +706,8 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>B13/B7</f>
-        <v>3.7518568825364883E-6</v>
+        <f>(B13/B7)/F4</f>
+        <v>4.0151450848197504E-6</v>
       </c>
       <c r="C16" s="10">
         <f>C13/C7</f>
@@ -712,7 +715,7 @@
       </c>
       <c r="D16" s="19">
         <f>AVERAGE(B16:C16)</f>
-        <v>3.1921115898714537E-6</v>
+        <v>3.3237556910130847E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,8 +754,8 @@
         <v>28</v>
       </c>
       <c r="B20" s="4">
-        <f>B19/B7</f>
-        <v>2.7036314092389213E-5</v>
+        <f>(B19/B7)/F4</f>
+        <v>2.893359929185512E-5</v>
       </c>
       <c r="C20" s="4">
         <f>C19/C7</f>
@@ -760,90 +763,91 @@
       </c>
       <c r="D20" s="4">
         <f>AVERAGE(B20:C20)</f>
-        <v>2.1760390939135172E-5</v>
+        <v>2.2709033538868123E-5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <f>D6-D10+D16+D20</f>
-        <v>1.4550059980123194E-3</v>
-      </c>
-      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B22-D16</f>
-        <v>1.451813886422448E-3</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <f>C6-D10+D16+D20</f>
+        <v>1.5048189033683111E-3</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23-D16</f>
+        <v>1.501495147677298E-3</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
-        <f>C6-C10+C20</f>
-        <v>1.4877118270816691E-3</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
+      <c r="B26" s="4">
+        <f>C6-D10+D20</f>
+        <v>1.501495147677298E-3</v>
+      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
@@ -862,9 +866,19 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,9 +888,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3FF730-CD7B-4BE0-818C-4803132121D8}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -995,8 +1009,8 @@
         <v>15</v>
       </c>
       <c r="B10" s="16">
-        <f>B9/B7</f>
-        <v>1.8487603149116948E-4</v>
+        <f>(B9/B7)/F4</f>
+        <v>1.9784978808704102E-4</v>
       </c>
       <c r="C10" s="16">
         <f>C9/C7</f>
@@ -1004,7 +1018,7 @@
       </c>
       <c r="D10" s="3">
         <f>AVERAGE(B10:C10)</f>
-        <v>3.0143839189366304E-4</v>
+        <v>3.0792527019159882E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1053,8 +1067,8 @@
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <f>(B12+B13)/B7</f>
-        <v>2.8706474778732761E-2</v>
+        <f>((B12+B13)/B7)/F4</f>
+        <v>3.0720964236889445E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
@@ -1067,8 +1081,8 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>B13/B7</f>
-        <v>2.7627352867754559E-3</v>
+        <f>(B13/B7)/F4</f>
+        <v>2.9566114472509264E-3</v>
       </c>
       <c r="C16" s="10">
         <f>C13/C7</f>
@@ -1076,7 +1090,7 @@
       </c>
       <c r="D16" s="4">
         <f>AVERAGE(B16:C16)</f>
-        <v>2.6823806253188417E-3</v>
+        <v>2.7793187055565769E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,8 +1127,8 @@
         <v>28</v>
       </c>
       <c r="B20" s="4">
-        <f>B19/B7</f>
-        <v>2.028162018618562E-4</v>
+        <f>(B19/B7)/F4</f>
+        <v>2.1704891778198646E-4</v>
       </c>
       <c r="C20" s="4">
         <f>C19/C7</f>
@@ -1122,90 +1136,91 @@
       </c>
       <c r="D20" s="4">
         <f>AVERAGE(B20:C20)</f>
-        <v>2.3251571923845463E-4</v>
+        <v>2.3963207719851975E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <f>D6-D10+D16+D20</f>
-        <v>4.8380481165980586E-3</v>
-      </c>
-      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B22-D16</f>
-        <v>2.155667491279217E-3</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <f>C6-D10+D16+D20</f>
+        <v>5.0110255125634974E-3</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B23-D16</f>
+        <v>2.2317068070069205E-3</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
-        <f>C6-C10+C20</f>
-        <v>2.1442144843188964E-3</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
+      <c r="B26" s="4">
+        <f>C6-D10+D20</f>
+        <v>2.2317068070069209E-3</v>
+      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
@@ -1224,9 +1239,19 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1236,11 +1261,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD483D2-7A4A-4EFD-A0BB-DCD393B7C72C}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1360,8 +1383,8 @@
         <v>15</v>
       </c>
       <c r="B10" s="16">
-        <f>B9/B7</f>
-        <v>1.6077687368441044E-4</v>
+        <f>(B9/B7)/F4</f>
+        <v>1.6860841194410952E-4</v>
       </c>
       <c r="C10" s="16">
         <f>C9/C7</f>
@@ -1369,7 +1392,7 @@
       </c>
       <c r="D10" s="3">
         <f>AVERAGE(B10:C10)</f>
-        <v>2.7895243886049889E-4</v>
+        <v>2.8286820799034844E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1418,8 +1441,8 @@
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <f>(B12+B13)/B7</f>
-        <v>3.524740765825736E-2</v>
+        <f>((B12+B13)/B7)/F4</f>
+        <v>3.6964330094332934E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
@@ -1432,8 +1455,8 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>B13/B7</f>
-        <v>4.1723201951694442E-3</v>
+        <f>(B13/B7)/F4</f>
+        <v>4.3755564224413086E-3</v>
       </c>
       <c r="C16" s="10">
         <f>C13/C7</f>
@@ -1441,7 +1464,7 @@
       </c>
       <c r="D16" s="4">
         <f>AVERAGE(B16:C16)</f>
-        <v>3.8589178928209989E-3</v>
+        <v>3.9605360064569311E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,8 +1501,8 @@
         <v>28</v>
       </c>
       <c r="B20" s="3">
-        <f>B19/B7</f>
-        <v>5.0273740299374022E-4</v>
+        <f>(B19/B7)/F4</f>
+        <v>5.2722604440031209E-4</v>
       </c>
       <c r="C20" s="3">
         <f>C19/C7</f>
@@ -1487,7 +1510,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(B20:C20)</f>
-        <v>3.9858973956413175E-4</v>
+        <v>4.1083406026741769E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,8 +1527,8 @@
         <v>18</v>
       </c>
       <c r="B23" s="2">
-        <f>D6-D10+D16+D20</f>
-        <v>7.2019158492623364E-3</v>
+        <f>C6-D10+D16+D20</f>
+        <v>7.3885018587340002E-3</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
@@ -1516,63 +1539,63 @@
       </c>
       <c r="B24" s="4">
         <f>B23-D16</f>
-        <v>3.3429979564413375E-3</v>
+        <v>3.4279658522770691E-3</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
-        <f>C6-C10+C20</f>
-        <v>3.1973140720979358E-3</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <f>C6-D10+D20</f>
+        <v>3.4279658522770691E-3</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="4"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
@@ -1596,9 +1619,14 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,9 +1636,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1738,8 +1766,8 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <f>B9/B7</f>
-        <v>5.4449974683604362E-5</v>
+        <f>(B9/B7)/F8</f>
+        <v>5.8271025538594139E-5</v>
       </c>
       <c r="C10" s="2">
         <f>C9/C7</f>
@@ -1747,7 +1775,7 @@
       </c>
       <c r="D10" s="18">
         <f>AVERAGE(B10:C10)</f>
-        <v>7.9998231614686579E-5</v>
+        <v>8.1908757042181468E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,8 +1824,8 @@
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <f>(B12+B13)/B7</f>
-        <v>1.9770256739036821E-2</v>
+        <f>((B12+B13)/B7)/F8</f>
+        <v>2.1157643176863965E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
@@ -1810,8 +1838,8 @@
         <v>17</v>
       </c>
       <c r="B16" s="9">
-        <f>B13/B7</f>
-        <v>3.6233849549912701E-5</v>
+        <f>(B13/B7)/F8</f>
+        <v>3.87765758341171E-5</v>
       </c>
       <c r="C16" s="9">
         <f>C13/C7</f>
@@ -1819,7 +1847,7 @@
       </c>
       <c r="D16" s="18">
         <f>AVERAGE(B16:C16)</f>
-        <v>3.0624431800615477E-5</v>
+        <v>3.1895794942717676E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,8 +1889,8 @@
         <v>28</v>
       </c>
       <c r="B20" s="4">
-        <f>B19/B7</f>
-        <v>2.0826196794638527E-4</v>
+        <f>(B19/B7)/F8</f>
+        <v>2.2287684288999123E-4</v>
       </c>
       <c r="C20" s="3">
         <f>C19/C7</f>
@@ -1870,7 +1898,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(B20:C20)</f>
-        <v>1.8832313632340743E-4</v>
+        <v>1.956305737952104E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,8 +1909,8 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <f>D6-D10+D16+D20</f>
-        <v>2.5569821233945821E-3</v>
+        <f>C6-D10+D16+D20</f>
+        <v>2.6456176116957469E-3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1893,26 +1921,27 @@
       </c>
       <c r="B23" s="4">
         <f>B22-D16</f>
-        <v>2.5263576915939665E-3</v>
+        <v>2.6137218167530292E-3</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
-        <f>C6-C10+C20</f>
-        <v>2.5628378161546609E-3</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <f>C6-D10+D20</f>
+        <v>2.6137218167530292E-3</v>
+      </c>
       <c r="D25" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
@@ -1922,29 +1951,28 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
@@ -1968,9 +1996,14 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,14 +2013,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2108,8 +2145,8 @@
         <v>15</v>
       </c>
       <c r="B10" s="16">
-        <f>B9/B7</f>
-        <v>2.9456635278350023E-4</v>
+        <f>(B9/B7)/F8</f>
+        <v>3.1523767578585111E-4</v>
       </c>
       <c r="C10" s="16">
         <f>C9/C7</f>
@@ -2117,7 +2154,7 @@
       </c>
       <c r="D10" s="3">
         <f>AVERAGE(B10:C10)</f>
-        <v>4.48578104446513E-4</v>
+        <v>4.5891376594768844E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,8 +2204,8 @@
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <f>(B12+B13)/B7</f>
-        <v>2.6046347538028411E-2</v>
+        <f>((B12+B13)/B7)/F8</f>
+        <v>2.7874161400346192E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
@@ -2181,8 +2218,8 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>B13/B7</f>
-        <v>2.4546928082801889E-3</v>
+        <f>(B13/B7)/F8</f>
+        <v>2.6269519527209037E-3</v>
       </c>
       <c r="C16" s="10">
         <f>C13/C7</f>
@@ -2190,7 +2227,7 @@
       </c>
       <c r="D16" s="4">
         <f>AVERAGE(B16:C16)</f>
-        <v>2.4611973063652674E-3</v>
+        <v>2.5473268785856243E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,8 +2267,8 @@
         <v>28</v>
       </c>
       <c r="B20" s="3">
-        <f>B19/B7</f>
-        <v>3.2341658197065524E-4</v>
+        <f>(B19/B7)/F8</f>
+        <v>3.4611248245982403E-4</v>
       </c>
       <c r="C20" s="3">
         <f>C19/C7</f>
@@ -2239,7 +2276,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(B20:C20)</f>
-        <v>2.6435677233301838E-4</v>
+        <v>2.7570472257760277E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,8 +2289,8 @@
         <v>18</v>
       </c>
       <c r="B22" s="3">
-        <f>D6-D10+D16+D20</f>
-        <v>5.7589431873665267E-3</v>
+        <f>C6-D10+D16+D20</f>
+        <v>5.9641178352155379E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,21 +2299,25 @@
       </c>
       <c r="B23" s="4">
         <f>B22-D16</f>
-        <v>3.2977458810012593E-3</v>
+        <v>3.4167909566299136E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
-        <f>C6-C10+C20</f>
-        <v>3.2027071065858555E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B25" s="4">
+        <f>C6-D10+D20</f>
+        <v>3.416790956629914E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1179" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546C8275-1507-4436-B59A-1CFE6D1D9B2A}"/>
+  <xr:revisionPtr revIDLastSave="1242" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93A86D3D-3ED0-49DF-BDE4-C9C0776BAB07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="AVEM" sheetId="21" r:id="rId3"/>
     <sheet name="AVUV" sheetId="17" r:id="rId4"/>
     <sheet name="AVDV" sheetId="18" r:id="rId5"/>
+    <sheet name="AVES" sheetId="22" r:id="rId6"/>
+    <sheet name="Small value" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -126,6 +128,45 @@
   </si>
   <si>
     <t>Brokerage commissions %</t>
+  </si>
+  <si>
+    <t>Estimated future costs</t>
+  </si>
+  <si>
+    <t>Leak like AVEM</t>
+  </si>
+  <si>
+    <t>Commissions AVEM x2</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>% ACWI</t>
+  </si>
+  <si>
+    <t>MSCI USA Small Cap</t>
+  </si>
+  <si>
+    <t>MSCI World ex USA Small Cap</t>
+  </si>
+  <si>
+    <t>MSCI Emerging Markets Small Cap</t>
+  </si>
+  <si>
+    <t>AVUV</t>
+  </si>
+  <si>
+    <t>AVDV</t>
+  </si>
+  <si>
+    <t>AVES</t>
+  </si>
+  <si>
+    <t>All-World small value</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -185,11 +226,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -200,7 +250,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -228,6 +278,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -513,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1638,7 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1932,11 +1987,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f>C6-D10+D20</f>
-        <v>2.6137218167530292E-3</v>
+        <f>C6-D10+D20+D16</f>
+        <v>2.6456176116957469E-3</v>
       </c>
       <c r="D25" s="10"/>
     </row>
@@ -2015,9 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2308,11 +2361,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4">
-        <f>C6-D10+D20</f>
-        <v>3.416790956629914E-3</v>
+        <f>C6-D10+D20+D16</f>
+        <v>5.9641178352155388E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,4 +2376,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD598ED6-3078-410E-9AB3-E4BB7C009B39}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f>AVEM!D16</f>
+        <v>3.9605360064569311E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <f>AVEM!D20*2</f>
+        <v>8.2166812053483538E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <f>SUM(C2:C4)</f>
+        <v>8.3822041269917668E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5462148-29D8-4674-8654-B6E591A5F135}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>4315442.8600000003</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/$C$6</f>
+        <v>0.5230034848696864</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2927974.75</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$6</f>
+        <v>0.35485141329398778</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>1007852.19</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.12214510183632583</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>8251269.8000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVUV!B25</f>
+        <v>2.6456176116957469E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D3*C9</f>
+        <v>1.3836672305494924E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <f>AVDV!B25</f>
+        <v>5.9641178352155388E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <f>D4*C10</f>
+        <v>2.1163756428781129E-3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <f>AVES!C5</f>
+        <v>8.3822041269917668E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <f>D5*C11</f>
+        <v>1.0238451767042801E-3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23">
+        <f>SUM(D9:D11)</f>
+        <v>4.5238880501318858E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1242" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93A86D3D-3ED0-49DF-BDE4-C9C0776BAB07}"/>
+  <xr:revisionPtr revIDLastSave="1270" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F271AB3-465D-4AE6-A182-407605F3F3E3}"/>
   <bookViews>
-    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27870" yWindow="1065" windowWidth="21870" windowHeight="17775" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUS" sheetId="19" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="AVUV" sheetId="17" r:id="rId4"/>
     <sheet name="AVDV" sheetId="18" r:id="rId5"/>
     <sheet name="AVES" sheetId="22" r:id="rId6"/>
-    <sheet name="Small value" sheetId="23" r:id="rId7"/>
+    <sheet name="AVLV" sheetId="24" r:id="rId7"/>
+    <sheet name="Small value" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Transaction costs can't be found</t>
-  </si>
-  <si>
     <t>Foreign withholding taxes</t>
   </si>
   <si>
@@ -167,6 +165,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Avantis U.S. Large Cap Value ETF (AVLV)</t>
   </si>
 </sst>
 </file>
@@ -564,47 +565,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD78A3-B1EB-43A6-B192-86B446B193C1}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -614,18 +621,19 @@
       <c r="C4" s="5">
         <v>1486457587</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="17">
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>329876</v>
@@ -633,25 +641,27 @@
       <c r="C5" s="5">
         <v>1316876</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f>0.15%*F4</f>
+        <f>0.15%*G4</f>
         <v>1.4016393442622952E-3</v>
       </c>
       <c r="C6" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <f>AVERAGE(B6:C6)</f>
         <v>1.4508196721311475E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -663,16 +673,18 @@
         <f>C5/C6</f>
         <v>877917333.33333337</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>3003</v>
@@ -680,29 +692,31 @@
       <c r="C9" s="5">
         <v>25260</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="20">
-        <f>(B9/B7)/F4</f>
+        <f>(B9/B7)/G4</f>
         <v>1.3655131018928326E-5</v>
       </c>
       <c r="C10" s="16">
         <f>C9/C7</f>
         <v>2.8772640704212088E-5</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16"/>
+      <c r="E10" s="18">
         <f>AVERAGE(B10:C10)</f>
         <v>2.1213885861570207E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -712,11 +726,12 @@
       <c r="C12" s="5">
         <v>13232521</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
         <v>883</v>
@@ -724,11 +739,12 @@
       <c r="C13" s="5">
         <v>2311</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9">
         <f>B13/(B12+B13)</f>
@@ -738,47 +754,51 @@
         <f t="shared" ref="C14" si="0">C13/(C12+C13)</f>
         <v>1.7461498566812182E-4</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
-        <f>((B12+B13)/B7)/F4</f>
+        <f>((B12+B13)/B7)/G4</f>
         <v>1.9047279886987838E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
         <v>1.507525993335743E-2</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10">
-        <f>(B13/B7)/F4</f>
+        <f>(B13/B7)/G4</f>
         <v>4.0151450848197504E-6</v>
       </c>
       <c r="C16" s="10">
         <f>C13/C7</f>
         <v>2.6323662972064186E-6</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="10"/>
+      <c r="E16" s="19">
         <f>AVERAGE(B16:C16)</f>
         <v>3.3237556910130847E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14">
         <v>0.03</v>
@@ -787,10 +807,11 @@
         <v>0.04</v>
       </c>
       <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <f>6363</f>
@@ -800,138 +821,155 @@
         <f>14472</f>
         <v>14472</v>
       </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
-        <f>(B19/B7)/F4</f>
+        <f>(B19/B7)/G4</f>
         <v>2.893359929185512E-5</v>
       </c>
       <c r="C20" s="4">
         <f>C19/C7</f>
         <v>1.648446778588113E-5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <f>AVERAGE(B20:C20)</f>
         <v>2.2709033538868123E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
-        <f>C6-D10+D16+D20</f>
+        <f>C6-E10+E16+E20</f>
         <v>1.5048189033683111E-3</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <f>B23-D16</f>
+        <f>B23-E16</f>
         <v>1.501495147677298E-3</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
-        <f>C6-D10+D20</f>
+        <f>C6-E10+E20</f>
         <v>1.501495147677298E-3</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -962,7 +1000,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -973,10 +1011,10 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,12 +1033,12 @@
         <v>0.93442622950819676</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>379637</v>
@@ -1047,7 +1085,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>32657</v>
@@ -1059,7 +1097,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="16">
         <f>(B9/B7)/F4</f>
@@ -1091,7 +1129,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
         <v>488017</v>
@@ -1103,7 +1141,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
@@ -1117,7 +1155,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
         <f>((B12+B13)/B7)/F4</f>
@@ -1131,7 +1169,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10">
         <f>(B13/B7)/F4</f>
@@ -1153,7 +1191,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14">
         <v>0.08</v>
@@ -1165,7 +1203,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <v>35826</v>
@@ -1177,7 +1215,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <f>(B19/B7)/F4</f>
@@ -1203,7 +1241,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
         <f>C6-D10+D16+D20</f>
@@ -1214,7 +1252,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <f>B23-D16</f>
@@ -1229,7 +1267,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <f>C6-D10+D20</f>
@@ -1327,7 +1365,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1336,7 +1374,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,10 +1385,10 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,12 +1407,12 @@
         <v>0.95355191256830596</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>422970</v>
@@ -1421,7 +1459,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>21611</v>
@@ -1433,7 +1471,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="16">
         <f>(B9/B7)/F4</f>
@@ -1465,7 +1503,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
         <v>560827</v>
@@ -1477,7 +1515,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
@@ -1491,7 +1529,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
         <f>((B12+B13)/B7)/F4</f>
@@ -1505,7 +1543,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10">
         <f>(B13/B7)/F4</f>
@@ -1527,7 +1565,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14">
         <v>0.08</v>
@@ -1539,7 +1577,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <v>67576</v>
@@ -1551,7 +1589,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <f>(B19/B7)/F4</f>
@@ -1577,7 +1615,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
         <f>C6-D10+D16+D20</f>
@@ -1588,7 +1626,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <f>B23-D16</f>
@@ -1603,7 +1641,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <f>C6-D10+D20</f>
@@ -1689,47 +1727,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G4" sqref="G4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1739,14 +1781,15 @@
       <c r="C4" s="5">
         <v>1570143136</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>317911</v>
@@ -1754,28 +1797,37 @@
       <c r="C5" s="5">
         <v>2181290</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f>0.25%*F8</f>
+        <f>0.25%*G6</f>
         <v>2.3360655737704921E-3</v>
       </c>
       <c r="C6" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <f>AVERAGE(B6:C6)</f>
         <v>2.4180327868852458E-3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1787,26 +1839,18 @@
         <f>C5/C6</f>
         <v>872516000</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="17">
-        <f>342/366</f>
-        <v>0.93442622950819676</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>7410</v>
@@ -1814,29 +1858,31 @@
       <c r="C9" s="5">
         <v>92091</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <f>(B9/B7)/F8</f>
+        <f>(B9/B7)/G6</f>
         <v>5.8271025538594139E-5</v>
       </c>
       <c r="C10" s="2">
         <f>C9/C7</f>
         <v>1.0554648854576879E-4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="2"/>
+      <c r="E10" s="18">
         <f>AVERAGE(B10:C10)</f>
         <v>8.1908757042181468E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1846,11 +1892,12 @@
       <c r="C12" s="5">
         <v>17083897</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
         <v>4931</v>
@@ -1858,11 +1905,12 @@
       <c r="C13" s="5">
         <v>21826</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
@@ -1872,47 +1920,51 @@
         <f t="shared" si="0"/>
         <v>1.2759472370738145E-3</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
-        <f>((B12+B13)/B7)/F8</f>
+        <f>((B12+B13)/B7)/G6</f>
         <v>2.1157643176863965E-2</v>
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
         <v>1.9605053660907076E-2</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9">
-        <f>(B13/B7)/F8</f>
+        <f>(B13/B7)/G6</f>
         <v>3.87765758341171E-5</v>
       </c>
       <c r="C16" s="9">
         <f>C13/C7</f>
         <v>2.5015014051318255E-5</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="9"/>
+      <c r="E16" s="18">
         <f>AVERAGE(B16:C16)</f>
         <v>3.1895794942717676E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14">
         <v>0.2</v>
@@ -1920,14 +1972,15 @@
       <c r="C18" s="14">
         <v>0.22</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
         <f>AVERAGE(B18:C18)</f>
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <f>28342</f>
@@ -1937,128 +1990,144 @@
         <f>146918</f>
         <v>146918</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
-        <f>(B19/B7)/F8</f>
+        <f>(B19/B7)/G6</f>
         <v>2.2287684288999123E-4</v>
       </c>
       <c r="C20" s="3">
         <f>C19/C7</f>
         <v>1.6838430470042957E-4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <f>AVERAGE(B20:C20)</f>
         <v>1.956305737952104E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <f>C6-D10+D16+D20</f>
+        <f>C6-E10+E16+E20</f>
         <v>2.6456176116957469E-3</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4">
-        <f>B22-D16</f>
+        <f>B22-E16</f>
         <v>2.6137218167530292E-3</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
-        <f>C6-D10+D20+D16</f>
+        <f>C6-E10+E20+E16</f>
         <v>2.6456176116957469E-3</v>
       </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2070,7 +2139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2083,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2092,6 +2163,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2020</v>
@@ -2100,10 +2176,7 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2117,13 +2190,13 @@
         <v>1056702827</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>292899</v>
@@ -2132,13 +2205,16 @@
         <v>2087838</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f>0.36%*F8</f>
+        <f>0.36%*F6</f>
         <v>3.3639344262295081E-3</v>
       </c>
       <c r="C6" s="4">
@@ -2148,8 +2224,12 @@
         <f>AVERAGE(B6:C6)</f>
         <v>3.481967213114754E-3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
+      <c r="F6" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,25 +2245,15 @@
         <v>579955000</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="F8" s="17">
-        <f>342/366</f>
-        <v>0.93442622950819676</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>25648</v>
@@ -2195,10 +2265,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="16">
-        <f>(B9/B7)/F8</f>
+        <f>(B9/B7)/F6</f>
         <v>3.1523767578585111E-4</v>
       </c>
       <c r="C10" s="16">
@@ -2227,7 +2297,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
         <v>213731</v>
@@ -2240,7 +2310,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
@@ -2254,10 +2324,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
-        <f>((B12+B13)/B7)/F8</f>
+        <f>((B12+B13)/B7)/F6</f>
         <v>2.7874161400346192E-2</v>
       </c>
       <c r="C15" s="9">
@@ -2268,10 +2338,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10">
-        <f>(B13/B7)/F8</f>
+        <f>(B13/B7)/F6</f>
         <v>2.6269519527209037E-3</v>
       </c>
       <c r="C16" s="10">
@@ -2290,7 +2360,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14">
         <v>0.32</v>
@@ -2305,7 +2375,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <v>28160</v>
@@ -2317,10 +2387,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
-        <f>(B19/B7)/F8</f>
+        <f>(B19/B7)/F6</f>
         <v>3.4611248245982403E-4</v>
       </c>
       <c r="C20" s="3">
@@ -2339,7 +2409,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
         <f>C6-D10+D16+D20</f>
@@ -2348,7 +2418,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4">
         <f>B22-D16</f>
@@ -2361,7 +2431,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4">
         <f>C6-D10+D20+D16</f>
@@ -2401,7 +2471,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <f>AVEM!D16</f>
@@ -2410,7 +2480,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <f>AVEM!D20*2</f>
@@ -2429,10 +2499,389 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94FFC8-24A2-4765-AFE3-C706492DE4CB}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="17">
+        <f>342/366</f>
+        <v>0.93442622950819676</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="e">
+        <f>AVERAGE(B6:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="e">
+        <f>B5/B6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="5" t="e">
+        <f>C5/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="20" t="e">
+        <f>(B9/B7)/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="16" t="e">
+        <f>C9/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="18" t="e">
+        <f>AVERAGE(B10:C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="e">
+        <f>B13/(B12+B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="9" t="e">
+        <f t="shared" ref="C14" si="0">C13/(C12+C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="e">
+        <f>((B12+B13)/B7)/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="9" t="e">
+        <f>(C12+C13)/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="e">
+        <f>(B13/B7)/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="10" t="e">
+        <f>C13/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="19" t="e">
+        <f>AVERAGE(B16:C16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="e">
+        <f>(B19/B7)/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="4" t="e">
+        <f>C19/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="e">
+        <f>AVERAGE(B20:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="e">
+        <f>C6-E10+E16+E20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="e">
+        <f>B23-E16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="e">
+        <f>C6-E10+E20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5462148-29D8-4674-8654-B6E591A5F135}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2444,15 +2893,15 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>4315442.8600000003</v>
@@ -2464,7 +2913,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2927974.75</v>
@@ -2476,7 +2925,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>1007852.19</v>
@@ -2493,7 +2942,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <f>AVUV!B25</f>
@@ -2506,7 +2955,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <f>AVDV!B25</f>
@@ -2521,7 +2970,7 @@
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <f>AVES!C5</f>
@@ -2532,12 +2981,12 @@
         <v>1.0238451767042801E-3</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23">

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1475" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72A318B8-F108-40D5-AC4F-7A567E6437AA}"/>
+  <xr:revisionPtr revIDLastSave="1529" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E8CAB14-175C-4147-9C05-0D29363257EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUV" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Dividend (gross)</t>
   </si>
   <si>
-    <t>Leakage costs</t>
-  </si>
-  <si>
     <t>First year</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>9/28/2021 - 8/31/2022</t>
+  </si>
+  <si>
+    <t>RR c/p</t>
+  </si>
+  <si>
+    <t>Tax leakage costs</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -219,6 +222,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -237,6 +242,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,7 +513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,7 +572,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -579,7 +590,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,7 +616,7 @@
         <v>0.93442622950819676</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,7 +675,7 @@
         <v>2.9214913286521525E-5</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E7:E10" si="0">AVERAGE(B10:D10)</f>
+        <f t="shared" ref="E10" si="0">AVERAGE(B10:D10)</f>
         <v>6.4344142456961489E-5</v>
       </c>
     </row>
@@ -739,7 +750,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
         <f>(B13/B7)/G6</f>
@@ -784,7 +795,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <f>28342</f>
@@ -801,7 +812,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <f>(B19/B7)/G6</f>
@@ -831,32 +842,120 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="19">
+        <f>B3</f>
+        <v>2020</v>
+      </c>
+      <c r="C24" s="19">
+        <f>C3</f>
+        <v>2021</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D3</f>
+        <v>2022</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="1" t="str">
+        <f>A10</f>
+        <v>Lending income %</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B10</f>
+        <v>5.8271025538594139E-5</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:D25" si="4">C10</f>
+        <v>1.0554648854576879E-4</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9214913286521525E-5</v>
+      </c>
+      <c r="E25" s="9">
+        <f>AVERAGE(B25:D25)</f>
+        <v>6.4344142456961489E-5</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
+      <c r="A26" s="1" t="str">
+        <f>A20</f>
+        <v>Brokerage commissions %</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B20</f>
+        <v>2.2287684288999123E-4</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:D26" si="5">C20</f>
+        <v>1.6838430470042957E-4</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1119738676528936E-4</v>
+      </c>
+      <c r="E26" s="9">
+        <f>AVERAGE(B26:D26)</f>
+        <v>1.6748617811857005E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="1" t="str">
+        <f>A15</f>
+        <v>Dividend (gross)</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B15</f>
+        <v>2.1157643176863965E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28:D28" si="6">C15</f>
+        <v>1.9605053660907076E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="6"/>
+        <v>2.0137587423299855E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" ref="E27:E29" si="7">AVERAGE(B28:D28)</f>
+        <v>2.0300094753690299E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="1" t="str">
+        <f>A18</f>
+        <v>Turnover</v>
+      </c>
+      <c r="B29" s="14">
+        <f>B18</f>
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:D29" si="8">C18</f>
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="8"/>
+        <v>0.24</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="7"/>
+        <v>0.22</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
@@ -933,7 +1032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94FFC8-24A2-4765-AFE3-C706492DE4CB}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -944,14 +1045,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,7 +1079,7 @@
         <v>0.94262295081967218</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,7 +1183,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" s="10">
         <f>(B13/B7)/E4</f>
@@ -1111,7 +1212,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>7792</v>
@@ -1120,7 +1221,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <f>(B19/B7)/E4</f>
@@ -1225,7 +1326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAC02E-C033-44C9-A725-F88F03ADB5EB}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,14 +1339,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,7 +1373,7 @@
         <v>0.92349726775956287</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,7 +1477,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" s="10">
         <f>(B13/B7)/E4</f>
@@ -1403,7 +1506,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>19746</v>
@@ -1412,7 +1515,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <f>(B19/B7)/E4</f>
@@ -1515,9 +1618,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1574,7 +1679,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,7 +1697,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1618,7 +1723,7 @@
         <v>0.93442622950819676</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,7 +1858,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" s="10">
         <f>(B13/B7)/G6</f>
@@ -1798,7 +1903,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>28160</v>
@@ -1813,7 +1918,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <f>(B19/B7)/G6</f>
@@ -1843,21 +1948,164 @@
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="19">
+        <f>B3</f>
+        <v>2020</v>
+      </c>
+      <c r="C24" s="19">
+        <f>C3</f>
+        <v>2021</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D3</f>
+        <v>2022</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="1" t="str">
+        <f>A10</f>
+        <v>Lending income %</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B10</f>
+        <v>3.1523767578585111E-4</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:D25" si="2">C10</f>
+        <v>6.0258985610952577E-4</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>7.6428526409233011E-4</v>
+      </c>
+      <c r="E25" s="9">
+        <f>AVERAGE(B25:D25)</f>
+        <v>5.6070426532923566E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>A16</f>
+        <v>Tax leakage costs</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B16</f>
+        <v>2.6269519527209037E-3</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:D26" si="3">C16</f>
+        <v>2.4677018044503454E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4983712737218396E-3</v>
+      </c>
+      <c r="E26" s="9">
+        <f>AVERAGE(B26:D26)</f>
+        <v>2.8643416769643625E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>A20</f>
+        <v>Brokerage commissions %</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B20</f>
+        <v>3.4611248245982403E-4</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:D27" si="4">C20</f>
+        <v>2.0529696269538155E-4</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3985764969868515E-4</v>
+      </c>
+      <c r="E27" s="9">
+        <f>AVERAGE(B27:D27)</f>
+        <v>2.6375569828463022E-4</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>A15</f>
+        <v>Dividend (gross)</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B15</f>
+        <v>2.7874161400346192E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" ref="C29:D29" si="5">C15</f>
+        <v>2.918555060306403E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="5"/>
+        <v>4.1510222734517523E-2</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" ref="E29:E31" si="6">AVERAGE(B29:D29)</f>
+        <v>3.2856644912642584E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>A14</f>
+        <v>% tax leakage</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B14</f>
+        <v>9.4243264039085214E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30:D30" si="7">C14</f>
+        <v>8.4552175767116586E-2</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="7"/>
+        <v>8.4277342863130308E-2</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="6"/>
+        <v>8.7690927556444032E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>A18</f>
+        <v>Turnover</v>
+      </c>
+      <c r="B31" s="14">
+        <f>B18</f>
+        <v>0.32</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" ref="C31:D31" si="8">C18</f>
+        <v>0.21</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="8"/>
+        <v>0.21</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="6"/>
+        <v>0.24666666666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,7 +2117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E464A6E-318F-4E5F-BBD8-22DF9CD04A86}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1880,14 +2130,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,7 +2164,7 @@
         <v>0.92349726775956287</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +2268,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B16" s="10">
         <f>(B13/B7)/E4</f>
@@ -2047,7 +2297,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>60412</v>
@@ -2056,7 +2306,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <f>(B19/B7)/E4</f>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1529" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E8CAB14-175C-4147-9C05-0D29363257EF}"/>
+  <xr:revisionPtr revIDLastSave="1533" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD84C45-840F-4BFB-AE6E-32E7C0FBFEBD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Tax leakage costs</t>
+  </si>
+  <si>
+    <t>Total costs</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -931,7 +934,7 @@
         <v>2.0137587423299855E-2</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" ref="E27:E29" si="7">AVERAGE(B28:D28)</f>
+        <f t="shared" ref="E28:E29" si="7">AVERAGE(B28:D28)</f>
         <v>2.0300094753690299E-2</v>
       </c>
     </row>
@@ -1618,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,6 +2108,15 @@
       <c r="E31" s="20">
         <f t="shared" si="6"/>
         <v>0.24666666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4">
+        <f>D6+E16+E20-E10</f>
+        <v>6.1673931099197566E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1533" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD84C45-840F-4BFB-AE6E-32E7C0FBFEBD}"/>
+  <xr:revisionPtr revIDLastSave="1613" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C12A6C9-0496-4423-B26F-FB7FD20573AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUV" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>Dividend income (net)</t>
   </si>
@@ -226,13 +226,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,10 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,39 +510,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2020</v>
       </c>
@@ -556,11 +553,14 @@
       <c r="D3" s="1">
         <v>2022</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -573,12 +573,15 @@
       <c r="D4" s="5">
         <v>3675290330</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="5">
+        <v>6820449176</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -591,17 +594,20 @@
       <c r="D5" s="5">
         <v>6593208</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="G5" t="s">
+      <c r="E5" s="5">
+        <v>13051606</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f>0.25%*G6</f>
+        <f>0.25%*H6</f>
         <v>2.3360655737704921E-3</v>
       </c>
       <c r="C6" s="4">
@@ -611,18 +617,21 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E6" s="4">
-        <f>AVERAGE(B6:D6)</f>
-        <v>2.4453551912568309E-3</v>
-      </c>
-      <c r="G6" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(B6:E6)</f>
+        <v>2.4590163934426232E-3</v>
+      </c>
+      <c r="H6" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -638,15 +647,20 @@
         <f>D5/D6</f>
         <v>2637283200</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <f>E5/E6</f>
+        <v>5220642400</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -659,14 +673,17 @@
       <c r="D9" s="5">
         <v>77048</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>787708</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <f>(B9/B7)/G6</f>
+        <f>(B9/B7)/H6</f>
         <v>5.8271025538594139E-5</v>
       </c>
       <c r="C10" s="2">
@@ -677,15 +694,19 @@
         <f>D9/D7</f>
         <v>2.9214913286521525E-5</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" ref="E10" si="0">AVERAGE(B10:D10)</f>
-        <v>6.4344142456961489E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <f>E9/E7</f>
+        <v>1.5088334722945207E-4</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(B10:E10)</f>
+        <v>8.5978943650084135E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -698,9 +719,12 @@
       <c r="D12" s="5">
         <v>53041491</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="5">
+        <v>120567369</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -713,32 +737,39 @@
       <c r="D13" s="5">
         <v>67030</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>119999</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ref="B14:C14" si="1">B13/(B12+B13)</f>
+        <f t="shared" ref="B14:C14" si="0">B13/(B12+B13)</f>
         <v>1.8327455241574147E-3</v>
       </c>
       <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2759472370738145E-3</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:E14" si="1">D13/(D12+D13)</f>
+        <v>1.2621326811190995E-3</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>1.2759472370738145E-3</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" ref="D14" si="2">D13/(D12+D13)</f>
-        <v>1.2621326811190995E-3</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.942962713380243E-4</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="9">
-        <f>((B12+B13)/B7)/G6</f>
+        <f>((B12+B13)/B7)/H6</f>
         <v>2.1157643176863965E-2</v>
       </c>
       <c r="C15" s="9">
@@ -749,14 +780,18 @@
         <f>(D12+D13)/D7</f>
         <v>2.0137587423299855E-2</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="9">
+        <f>(E12+E13)/E7</f>
+        <v>2.3117340502004122E-2</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="9">
-        <f>(B13/B7)/G6</f>
+        <f>(B13/B7)/H6</f>
         <v>3.87765758341171E-5</v>
       </c>
       <c r="C16" s="9">
@@ -767,18 +802,23 @@
         <f>D13/D7</f>
         <v>2.5416307205839708E-5</v>
       </c>
-      <c r="E16" s="4">
-        <f t="shared" ref="E16:E20" si="3">AVERAGE(B16:D16)</f>
-        <v>2.9735965697091685E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="9">
+        <f>E13/E7</f>
+        <v>2.298548546439419E-5</v>
+      </c>
+      <c r="F16" s="4">
+        <f>AVERAGE(B16:E16)</f>
+        <v>2.8048345638917311E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -792,11 +832,14 @@
         <v>0.24</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="3"/>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+      <c r="F18" s="14">
+        <f>AVERAGE(B18:E18)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -811,14 +854,17 @@
       <c r="D19" s="5">
         <v>293259</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>274645</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4">
-        <f>(B19/B7)/G6</f>
+        <f>(B19/B7)/H6</f>
         <v>2.2287684288999123E-4</v>
       </c>
       <c r="C20" s="3">
@@ -829,29 +875,34 @@
         <f>D19/D7</f>
         <v>1.1119738676528936E-4</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" si="3"/>
-        <v>1.6748617811857005E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f>E19/E7</f>
+        <v>5.2607510523992221E-5</v>
+      </c>
+      <c r="F20" s="4">
+        <f>AVERAGE(B20:E20)</f>
+        <v>1.387665112199256E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="19">
         <f>B3</f>
@@ -865,11 +916,14 @@
         <f>D3</f>
         <v>2022</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="19">
+        <v>2023</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>A10</f>
         <v>Lending income %</v>
@@ -879,44 +933,52 @@
         <v>5.8271025538594139E-5</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:D25" si="4">C10</f>
+        <f t="shared" ref="C25:E25" si="2">C10</f>
         <v>1.0554648854576879E-4</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.9214913286521525E-5</v>
       </c>
-      <c r="E25" s="9">
-        <f>AVERAGE(B25:D25)</f>
-        <v>6.4344142456961489E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5088334722945207E-4</v>
+      </c>
+      <c r="F25" s="9">
+        <f>AVERAGE(B25:E25)</f>
+        <v>8.5978943650084135E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>A20</f>
         <v>Brokerage commissions %</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <f>B20</f>
         <v>2.2287684288999123E-4</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" ref="C26:D26" si="5">C20</f>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:E26" si="3">C20</f>
         <v>1.6838430470042957E-4</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="5"/>
+      <c r="D26" s="3">
+        <f t="shared" si="3"/>
         <v>1.1119738676528936E-4</v>
       </c>
-      <c r="E26" s="9">
-        <f>AVERAGE(B26:D26)</f>
-        <v>1.6748617811857005E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2607510523992221E-5</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F29" si="4">AVERAGE(B26:E26)</f>
+        <v>1.387665112199256E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>A15</f>
         <v>Dividend (gross)</v>
@@ -926,19 +988,23 @@
         <v>2.1157643176863965E-2</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:D28" si="6">C15</f>
+        <f t="shared" ref="C28:E28" si="5">C15</f>
         <v>1.9605053660907076E-2</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.0137587423299855E-2</v>
       </c>
-      <c r="E28" s="9">
-        <f t="shared" ref="E28:E29" si="7">AVERAGE(B28:D28)</f>
-        <v>2.0300094753690299E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3117340502004122E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="4"/>
+        <v>2.1004406190768755E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>A18</f>
         <v>Turnover</v>
@@ -948,82 +1014,103 @@
         <v>0.2</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:D29" si="8">C18</f>
+        <f t="shared" ref="C29:E29" si="6">C18</f>
         <v>0.22</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
-      <c r="E29" s="20">
-        <f t="shared" si="7"/>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="14">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <f>E6-F10+F20</f>
+        <v>2.5527875675698413E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,39 +1708,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2020</v>
       </c>
@@ -1663,11 +1751,14 @@
       <c r="D3" s="1">
         <v>2022</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1680,12 +1771,15 @@
       <c r="D4" s="5">
         <v>1668508447</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="5">
+        <v>3452076592</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1698,17 +1792,20 @@
       <c r="D5" s="5">
         <v>5061317</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="G5" t="s">
+      <c r="E5" s="5">
+        <v>9208685</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f>0.36%*G6</f>
+        <f>0.36%*H6</f>
         <v>3.3639344262295081E-3</v>
       </c>
       <c r="C6" s="4">
@@ -1718,18 +1815,21 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E6" s="4">
-        <f>AVERAGE(B6:D6)</f>
-        <v>3.5213114754098357E-3</v>
-      </c>
-      <c r="G6" s="17">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(B6:E6)</f>
+        <v>3.5409836065573765E-3</v>
+      </c>
+      <c r="H6" s="17">
         <f>342/366</f>
         <v>0.93442622950819676</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1745,15 +1845,20 @@
         <f>D5/D6</f>
         <v>1405921388.8888888</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <f>E5/E6</f>
+        <v>2557968055.5555558</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1766,14 +1871,17 @@
       <c r="D9" s="5">
         <v>1074525</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>2622441</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="16">
-        <f>(B9/B7)/G6</f>
+        <f>(B9/B7)/H6</f>
         <v>3.1523767578585111E-4</v>
       </c>
       <c r="C10" s="16">
@@ -1784,15 +1892,19 @@
         <f>D9/D7</f>
         <v>7.6428526409233011E-4</v>
       </c>
-      <c r="E10" s="4">
-        <f>AVERAGE(B10:D10)</f>
-        <v>5.6070426532923566E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="16">
+        <f>E9/E7</f>
+        <v>1.0252047496466649E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(B10:E10)</f>
+        <v>6.7682938640859294E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1805,9 +1917,12 @@
       <c r="D12" s="5">
         <v>53441675</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="5">
+        <v>106217917</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1821,9 +1936,12 @@
       <c r="D13" s="5">
         <v>4918435</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>10479311</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1836,17 +1954,21 @@
         <v>8.4552175767116586E-2</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ref="D14" si="1">D13/(D12+D13)</f>
+        <f t="shared" ref="D14:E14" si="1">D13/(D12+D13)</f>
         <v>8.4277342863130308E-2</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>8.9799142444069016E-2</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="9">
-        <f>((B12+B13)/B7)/G6</f>
+        <f>((B12+B13)/B7)/H6</f>
         <v>2.7874161400346192E-2</v>
       </c>
       <c r="C15" s="9">
@@ -1857,14 +1979,18 @@
         <f>(D12+D13)/D7</f>
         <v>4.1510222734517523E-2</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="9">
+        <f>(E12+E13)/E7</f>
+        <v>4.5621065418135161E-2</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="10">
-        <f>(B13/B7)/G6</f>
+        <f>(B13/B7)/H6</f>
         <v>2.6269519527209037E-3</v>
       </c>
       <c r="C16" s="10">
@@ -1875,18 +2001,23 @@
         <f>D13/D7</f>
         <v>3.4983712737218396E-3</v>
       </c>
-      <c r="E16" s="4">
-        <f>AVERAGE(B16:D16)</f>
-        <v>2.8643416769643625E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <f>E13/E7</f>
+        <v>4.0967325519333103E-3</v>
+      </c>
+      <c r="F16" s="4">
+        <f>AVERAGE(B16:E16)</f>
+        <v>3.1724393957065994E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -1899,12 +2030,15 @@
       <c r="D18" s="15">
         <v>0.21</v>
       </c>
-      <c r="E18" s="14">
-        <f>AVERAGE(B18:D18)</f>
-        <v>0.24666666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="14">
+        <f>AVERAGE(B18:E18)</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
@@ -1917,14 +2051,17 @@
       <c r="D19" s="5">
         <v>337221</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>293289</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <f>(B19/B7)/G6</f>
+        <f>(B19/B7)/H6</f>
         <v>3.4611248245982403E-4</v>
       </c>
       <c r="C20" s="3">
@@ -1935,29 +2072,34 @@
         <f>D19/D7</f>
         <v>2.3985764969868515E-4</v>
       </c>
-      <c r="E20" s="4">
-        <f>AVERAGE(B20:D20)</f>
-        <v>2.6375569828463022E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f>E19/E7</f>
+        <v>1.1465702214811343E-4</v>
+      </c>
+      <c r="F20" s="4">
+        <f>AVERAGE(B20:E20)</f>
+        <v>2.2648102925050103E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="19">
         <f>B3</f>
@@ -1971,11 +2113,14 @@
         <f>D3</f>
         <v>2022</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="19">
+        <v>2023</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>A10</f>
         <v>Lending income %</v>
@@ -1985,19 +2130,23 @@
         <v>3.1523767578585111E-4</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:D25" si="2">C10</f>
+        <f t="shared" ref="C25:E25" si="2">C10</f>
         <v>6.0258985610952577E-4</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="2"/>
         <v>7.6428526409233011E-4</v>
       </c>
-      <c r="E25" s="9">
-        <f>AVERAGE(B25:D25)</f>
-        <v>5.6070426532923566E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0252047496466649E-3</v>
+      </c>
+      <c r="F25" s="9">
+        <f>AVERAGE(B25:E25)</f>
+        <v>6.7682938640859294E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>A16</f>
         <v>Tax leakage costs</v>
@@ -2007,44 +2156,52 @@
         <v>2.6269519527209037E-3</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26:D26" si="3">C16</f>
+        <f t="shared" ref="C26:E26" si="3">C16</f>
         <v>2.4677018044503454E-3</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="3"/>
         <v>3.4983712737218396E-3</v>
       </c>
-      <c r="E26" s="9">
-        <f>AVERAGE(B26:D26)</f>
-        <v>2.8643416769643625E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0967325519333103E-3</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F31" si="4">AVERAGE(B26:E26)</f>
+        <v>3.1724393957065994E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>A20</f>
         <v>Brokerage commissions %</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f>B20</f>
         <v>3.4611248245982403E-4</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" ref="C27:D27" si="4">C20</f>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:E27" si="5">C20</f>
         <v>2.0529696269538155E-4</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3985764969868515E-4</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1465702214811343E-4</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="4"/>
-        <v>2.3985764969868515E-4</v>
-      </c>
-      <c r="E27" s="9">
-        <f>AVERAGE(B27:D27)</f>
-        <v>2.6375569828463022E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.2648102925050103E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>A15</f>
         <v>Dividend (gross)</v>
@@ -2054,19 +2211,23 @@
         <v>2.7874161400346192E-2</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:D29" si="5">C15</f>
+        <f t="shared" ref="C29:E29" si="6">C15</f>
         <v>2.918555060306403E-2</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1510222734517523E-2</v>
       </c>
-      <c r="E29" s="9">
-        <f t="shared" ref="E29:E31" si="6">AVERAGE(B29:D29)</f>
-        <v>3.2856644912642584E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5621065418135161E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="4"/>
+        <v>3.6047750039015725E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>A14</f>
         <v>% tax leakage</v>
@@ -2076,19 +2237,23 @@
         <v>9.4243264039085214E-2</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30:D30" si="7">C14</f>
+        <f t="shared" ref="C30:E30" si="7">C14</f>
         <v>8.4552175767116586E-2</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="7"/>
         <v>8.4277342863130308E-2</v>
       </c>
-      <c r="E30" s="9">
-        <f t="shared" si="6"/>
-        <v>8.7690927556444032E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <f t="shared" si="7"/>
+        <v>8.9799142444069016E-2</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="4"/>
+        <v>8.8217981278350274E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>A18</f>
         <v>Turnover</v>
@@ -2098,25 +2263,29 @@
         <v>0.32</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" ref="C31:D31" si="8">C18</f>
+        <f t="shared" ref="C31:E31" si="8">C18</f>
         <v>0.21</v>
       </c>
       <c r="D31" s="14">
         <f t="shared" si="8"/>
         <v>0.21</v>
       </c>
-      <c r="E31" s="20">
-        <f t="shared" si="6"/>
-        <v>0.24666666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="14">
+        <f t="shared" si="8"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="4">
-        <f>D6+E16+E20-E10</f>
-        <v>6.1673931099197566E-3</v>
+      <c r="F34" s="4">
+        <f>E6+F16+F20-F10</f>
+        <v>6.3220910385485074E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis/Avantis.xlsx
+++ b/Avantis/Avantis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Avantis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1613" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C12A6C9-0496-4423-B26F-FB7FD20573AD}"/>
+  <xr:revisionPtr revIDLastSave="1615" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CCB6739-18B7-4B94-9644-143CC064B3D2}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVUV" sheetId="17" r:id="rId1"/>
@@ -226,7 +226,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -245,6 +245,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +944,7 @@
         <f t="shared" si="2"/>
         <v>2.9214913286521525E-5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>1.5088334722945207E-4</v>
       </c>
@@ -1710,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598ED46-EEA8-4CD3-B87C-CF32F0FABA87}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2141,7 @@
         <f t="shared" si="2"/>
         <v>7.6428526409233011E-4</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>1.0252047496466649E-3</v>
       </c>
